--- a/upscaling_scenario_tool/standard_parameters.xlsx
+++ b/upscaling_scenario_tool/standard_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klemm\Documents\PythonScripts\automated_scenario\GregorBecker-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003624F8-15F1-42CB-AC99-95A8505AB731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2C41B-EF87-4811-BC2C-0EB898129A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="9" xr2:uid="{54F80C72-87B3-4841-96FF-5A9A876C6CE8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="7" activeTab="14" xr2:uid="{54F80C72-87B3-4841-96FF-5A9A876C6CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="PV" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,15 @@
     <sheet name="Gasheating" sheetId="3" r:id="rId4"/>
     <sheet name="HeatNetwork" sheetId="5" r:id="rId5"/>
     <sheet name="Buses" sheetId="6" r:id="rId6"/>
-    <sheet name="Links" sheetId="8" r:id="rId7"/>
-    <sheet name="ASHP" sheetId="9" r:id="rId8"/>
-    <sheet name="CHP" sheetId="10" r:id="rId9"/>
-    <sheet name="SWHP" sheetId="11" r:id="rId10"/>
+    <sheet name="Sinks" sheetId="14" r:id="rId7"/>
+    <sheet name="Links" sheetId="8" r:id="rId8"/>
+    <sheet name="ASHP" sheetId="9" r:id="rId9"/>
+    <sheet name="CHP" sheetId="10" r:id="rId10"/>
+    <sheet name="SWHP" sheetId="11" r:id="rId11"/>
+    <sheet name="ResHeatDemand" sheetId="12" r:id="rId12"/>
+    <sheet name="ResElecDemand" sheetId="13" r:id="rId13"/>
+    <sheet name="ComElecDemand" sheetId="15" r:id="rId14"/>
+    <sheet name="ComHeatDemand" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="154">
   <si>
     <t>variable costs /(CU/kWh)</t>
   </si>
@@ -334,6 +339,168 @@
   </si>
   <si>
     <t>central_swhp_electricity_bus</t>
+  </si>
+  <si>
+    <t>Year of Construction</t>
+  </si>
+  <si>
+    <t>&lt;1918</t>
+  </si>
+  <si>
+    <t>district_electricity_bus</t>
+  </si>
+  <si>
+    <t>district_heat_output_bus</t>
+  </si>
+  <si>
+    <t>district_heat_input_bus</t>
+  </si>
+  <si>
+    <t>SFB (kWh/a)</t>
+  </si>
+  <si>
+    <t>MFB (kWh/a)</t>
+  </si>
+  <si>
+    <t>household size</t>
+  </si>
+  <si>
+    <t>sink_type</t>
+  </si>
+  <si>
+    <t>h0</t>
+  </si>
+  <si>
+    <t>g0</t>
+  </si>
+  <si>
+    <t>load profile</t>
+  </si>
+  <si>
+    <t>nominal value /(kW)</t>
+  </si>
+  <si>
+    <t>occupants [RICHARDSON]</t>
+  </si>
+  <si>
+    <t>building class [HEAT SLP ONLY]</t>
+  </si>
+  <si>
+    <t>wind class [HEAT SLP ONLY]</t>
+  </si>
+  <si>
+    <t>EFH</t>
+  </si>
+  <si>
+    <t>MFH</t>
+  </si>
+  <si>
+    <t>1 unit(s)</t>
+  </si>
+  <si>
+    <t>2 unit(s)</t>
+  </si>
+  <si>
+    <t>3 unit(s)</t>
+  </si>
+  <si>
+    <t>4 unit(s)</t>
+  </si>
+  <si>
+    <t>5 unit(s)</t>
+  </si>
+  <si>
+    <t>6 unit(s)</t>
+  </si>
+  <si>
+    <t>7 unit(s)</t>
+  </si>
+  <si>
+    <t>8 unit(s)</t>
+  </si>
+  <si>
+    <t>9 unit(s)</t>
+  </si>
+  <si>
+    <t>10 unit(s)</t>
+  </si>
+  <si>
+    <t>11 unit(s)</t>
+  </si>
+  <si>
+    <t>12 unit(s)</t>
+  </si>
+  <si>
+    <t>&gt; 12 unit(s)</t>
+  </si>
+  <si>
+    <t>GHD</t>
+  </si>
+  <si>
+    <t>COM_heat_sink</t>
+  </si>
+  <si>
+    <t>COM_electricity_sink</t>
+  </si>
+  <si>
+    <t>commercial type</t>
+  </si>
+  <si>
+    <t>specific demand (kWh/m2/a)</t>
+  </si>
+  <si>
+    <t>GGA</t>
+  </si>
+  <si>
+    <t>GKO</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>COM_Food_electricity_sink</t>
+  </si>
+  <si>
+    <t>COM_Food_heat_sink</t>
+  </si>
+  <si>
+    <t>COM_Retail_electricity_sink</t>
+  </si>
+  <si>
+    <t>COM_Retail_heat_sink</t>
+  </si>
+  <si>
+    <t>COM_Office_electricity_sink</t>
+  </si>
+  <si>
+    <t>COM_Office_heat_sink</t>
+  </si>
+  <si>
+    <t>RES_SFB_electricity_sink</t>
+  </si>
+  <si>
+    <t>RES_SFB_heat_sink</t>
+  </si>
+  <si>
+    <t>RES_MFB_electricity_sink</t>
+  </si>
+  <si>
+    <t>RES_MFB_heat_sink</t>
+  </si>
+  <si>
+    <t>RES_electricity_sink</t>
+  </si>
+  <si>
+    <t>RES_heat_sink</t>
+  </si>
+  <si>
+    <t>COM_Food</t>
+  </si>
+  <si>
+    <t>COM_Retail</t>
+  </si>
+  <si>
+    <t>COM_Office</t>
   </si>
 </sst>
 </file>
@@ -344,12 +511,19 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -423,6 +597,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -474,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -720,200 +900,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Standard 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Standard 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Standard 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1427,10 +1669,172 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FE8880-8BE9-4F72-BC86-0B8CF6C38967}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="43">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0.35</v>
+      </c>
+      <c r="F2" s="45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="45">
+        <v>0</v>
+      </c>
+      <c r="H2" s="45">
+        <v>0</v>
+      </c>
+      <c r="I2" s="45">
+        <v>0</v>
+      </c>
+      <c r="J2" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="45">
+        <v>0</v>
+      </c>
+      <c r="N2" s="53">
+        <v>10</v>
+      </c>
+      <c r="O2" s="45">
+        <v>1000</v>
+      </c>
+      <c r="P2" s="45">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="R2" s="45">
+        <v>0</v>
+      </c>
+      <c r="S2" s="46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{F2CB256D-BC30-493C-AA65-5F1B40BF51B5}">
+            <x14:iconSet iconSet="3Symbols" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C1:C2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124A4C09-B5F9-4EDE-9BC8-B0512B562F1C}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1657,6 +2061,5847 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEADE6-CB44-413F-9989-F48D1FF9EED6}">
+  <dimension ref="A1:N109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>247</v>
+      </c>
+      <c r="C2">
+        <v>238</v>
+      </c>
+      <c r="D2">
+        <v>212</v>
+      </c>
+      <c r="E2">
+        <v>212</v>
+      </c>
+      <c r="F2">
+        <v>212</v>
+      </c>
+      <c r="G2">
+        <v>212</v>
+      </c>
+      <c r="H2">
+        <v>182</v>
+      </c>
+      <c r="I2">
+        <v>182</v>
+      </c>
+      <c r="J2">
+        <v>182</v>
+      </c>
+      <c r="K2">
+        <v>182</v>
+      </c>
+      <c r="L2">
+        <v>182</v>
+      </c>
+      <c r="M2">
+        <v>182</v>
+      </c>
+      <c r="N2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1919</v>
+      </c>
+      <c r="B3">
+        <v>254</v>
+      </c>
+      <c r="C3">
+        <v>236</v>
+      </c>
+      <c r="D3">
+        <v>211</v>
+      </c>
+      <c r="E3">
+        <v>211</v>
+      </c>
+      <c r="F3">
+        <v>211</v>
+      </c>
+      <c r="G3">
+        <v>211</v>
+      </c>
+      <c r="H3">
+        <v>178</v>
+      </c>
+      <c r="I3">
+        <v>178</v>
+      </c>
+      <c r="J3">
+        <v>178</v>
+      </c>
+      <c r="K3">
+        <v>178</v>
+      </c>
+      <c r="L3">
+        <v>178</v>
+      </c>
+      <c r="M3">
+        <v>178</v>
+      </c>
+      <c r="N3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1920</v>
+      </c>
+      <c r="B4">
+        <v>254</v>
+      </c>
+      <c r="C4">
+        <v>236</v>
+      </c>
+      <c r="D4">
+        <v>211</v>
+      </c>
+      <c r="E4">
+        <v>211</v>
+      </c>
+      <c r="F4">
+        <v>211</v>
+      </c>
+      <c r="G4">
+        <v>211</v>
+      </c>
+      <c r="H4">
+        <v>178</v>
+      </c>
+      <c r="I4">
+        <v>178</v>
+      </c>
+      <c r="J4">
+        <v>178</v>
+      </c>
+      <c r="K4">
+        <v>178</v>
+      </c>
+      <c r="L4">
+        <v>178</v>
+      </c>
+      <c r="M4">
+        <v>178</v>
+      </c>
+      <c r="N4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1921</v>
+      </c>
+      <c r="B5">
+        <v>254</v>
+      </c>
+      <c r="C5">
+        <v>236</v>
+      </c>
+      <c r="D5">
+        <v>211</v>
+      </c>
+      <c r="E5">
+        <v>211</v>
+      </c>
+      <c r="F5">
+        <v>211</v>
+      </c>
+      <c r="G5">
+        <v>211</v>
+      </c>
+      <c r="H5">
+        <v>178</v>
+      </c>
+      <c r="I5">
+        <v>178</v>
+      </c>
+      <c r="J5">
+        <v>178</v>
+      </c>
+      <c r="K5">
+        <v>178</v>
+      </c>
+      <c r="L5">
+        <v>178</v>
+      </c>
+      <c r="M5">
+        <v>178</v>
+      </c>
+      <c r="N5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1922</v>
+      </c>
+      <c r="B6">
+        <v>254</v>
+      </c>
+      <c r="C6">
+        <v>236</v>
+      </c>
+      <c r="D6">
+        <v>211</v>
+      </c>
+      <c r="E6">
+        <v>211</v>
+      </c>
+      <c r="F6">
+        <v>211</v>
+      </c>
+      <c r="G6">
+        <v>211</v>
+      </c>
+      <c r="H6">
+        <v>178</v>
+      </c>
+      <c r="I6">
+        <v>178</v>
+      </c>
+      <c r="J6">
+        <v>178</v>
+      </c>
+      <c r="K6">
+        <v>178</v>
+      </c>
+      <c r="L6">
+        <v>178</v>
+      </c>
+      <c r="M6">
+        <v>178</v>
+      </c>
+      <c r="N6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1923</v>
+      </c>
+      <c r="B7">
+        <v>254</v>
+      </c>
+      <c r="C7">
+        <v>236</v>
+      </c>
+      <c r="D7">
+        <v>211</v>
+      </c>
+      <c r="E7">
+        <v>211</v>
+      </c>
+      <c r="F7">
+        <v>211</v>
+      </c>
+      <c r="G7">
+        <v>211</v>
+      </c>
+      <c r="H7">
+        <v>178</v>
+      </c>
+      <c r="I7">
+        <v>178</v>
+      </c>
+      <c r="J7">
+        <v>178</v>
+      </c>
+      <c r="K7">
+        <v>178</v>
+      </c>
+      <c r="L7">
+        <v>178</v>
+      </c>
+      <c r="M7">
+        <v>178</v>
+      </c>
+      <c r="N7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1924</v>
+      </c>
+      <c r="B8">
+        <v>254</v>
+      </c>
+      <c r="C8">
+        <v>236</v>
+      </c>
+      <c r="D8">
+        <v>211</v>
+      </c>
+      <c r="E8">
+        <v>211</v>
+      </c>
+      <c r="F8">
+        <v>211</v>
+      </c>
+      <c r="G8">
+        <v>211</v>
+      </c>
+      <c r="H8">
+        <v>178</v>
+      </c>
+      <c r="I8">
+        <v>178</v>
+      </c>
+      <c r="J8">
+        <v>178</v>
+      </c>
+      <c r="K8">
+        <v>178</v>
+      </c>
+      <c r="L8">
+        <v>178</v>
+      </c>
+      <c r="M8">
+        <v>178</v>
+      </c>
+      <c r="N8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1925</v>
+      </c>
+      <c r="B9">
+        <v>254</v>
+      </c>
+      <c r="C9">
+        <v>236</v>
+      </c>
+      <c r="D9">
+        <v>211</v>
+      </c>
+      <c r="E9">
+        <v>211</v>
+      </c>
+      <c r="F9">
+        <v>211</v>
+      </c>
+      <c r="G9">
+        <v>211</v>
+      </c>
+      <c r="H9">
+        <v>178</v>
+      </c>
+      <c r="I9">
+        <v>178</v>
+      </c>
+      <c r="J9">
+        <v>178</v>
+      </c>
+      <c r="K9">
+        <v>178</v>
+      </c>
+      <c r="L9">
+        <v>178</v>
+      </c>
+      <c r="M9">
+        <v>178</v>
+      </c>
+      <c r="N9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1926</v>
+      </c>
+      <c r="B10">
+        <v>254</v>
+      </c>
+      <c r="C10">
+        <v>236</v>
+      </c>
+      <c r="D10">
+        <v>211</v>
+      </c>
+      <c r="E10">
+        <v>211</v>
+      </c>
+      <c r="F10">
+        <v>211</v>
+      </c>
+      <c r="G10">
+        <v>211</v>
+      </c>
+      <c r="H10">
+        <v>178</v>
+      </c>
+      <c r="I10">
+        <v>178</v>
+      </c>
+      <c r="J10">
+        <v>178</v>
+      </c>
+      <c r="K10">
+        <v>178</v>
+      </c>
+      <c r="L10">
+        <v>178</v>
+      </c>
+      <c r="M10">
+        <v>178</v>
+      </c>
+      <c r="N10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1927</v>
+      </c>
+      <c r="B11">
+        <v>254</v>
+      </c>
+      <c r="C11">
+        <v>236</v>
+      </c>
+      <c r="D11">
+        <v>211</v>
+      </c>
+      <c r="E11">
+        <v>211</v>
+      </c>
+      <c r="F11">
+        <v>211</v>
+      </c>
+      <c r="G11">
+        <v>211</v>
+      </c>
+      <c r="H11">
+        <v>178</v>
+      </c>
+      <c r="I11">
+        <v>178</v>
+      </c>
+      <c r="J11">
+        <v>178</v>
+      </c>
+      <c r="K11">
+        <v>178</v>
+      </c>
+      <c r="L11">
+        <v>178</v>
+      </c>
+      <c r="M11">
+        <v>178</v>
+      </c>
+      <c r="N11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1928</v>
+      </c>
+      <c r="B12">
+        <v>254</v>
+      </c>
+      <c r="C12">
+        <v>236</v>
+      </c>
+      <c r="D12">
+        <v>211</v>
+      </c>
+      <c r="E12">
+        <v>211</v>
+      </c>
+      <c r="F12">
+        <v>211</v>
+      </c>
+      <c r="G12">
+        <v>211</v>
+      </c>
+      <c r="H12">
+        <v>178</v>
+      </c>
+      <c r="I12">
+        <v>178</v>
+      </c>
+      <c r="J12">
+        <v>178</v>
+      </c>
+      <c r="K12">
+        <v>178</v>
+      </c>
+      <c r="L12">
+        <v>178</v>
+      </c>
+      <c r="M12">
+        <v>178</v>
+      </c>
+      <c r="N12">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1929</v>
+      </c>
+      <c r="B13">
+        <v>254</v>
+      </c>
+      <c r="C13">
+        <v>236</v>
+      </c>
+      <c r="D13">
+        <v>211</v>
+      </c>
+      <c r="E13">
+        <v>211</v>
+      </c>
+      <c r="F13">
+        <v>211</v>
+      </c>
+      <c r="G13">
+        <v>211</v>
+      </c>
+      <c r="H13">
+        <v>178</v>
+      </c>
+      <c r="I13">
+        <v>178</v>
+      </c>
+      <c r="J13">
+        <v>178</v>
+      </c>
+      <c r="K13">
+        <v>178</v>
+      </c>
+      <c r="L13">
+        <v>178</v>
+      </c>
+      <c r="M13">
+        <v>178</v>
+      </c>
+      <c r="N13">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1930</v>
+      </c>
+      <c r="B14">
+        <v>254</v>
+      </c>
+      <c r="C14">
+        <v>236</v>
+      </c>
+      <c r="D14">
+        <v>211</v>
+      </c>
+      <c r="E14">
+        <v>211</v>
+      </c>
+      <c r="F14">
+        <v>211</v>
+      </c>
+      <c r="G14">
+        <v>211</v>
+      </c>
+      <c r="H14">
+        <v>178</v>
+      </c>
+      <c r="I14">
+        <v>178</v>
+      </c>
+      <c r="J14">
+        <v>178</v>
+      </c>
+      <c r="K14">
+        <v>178</v>
+      </c>
+      <c r="L14">
+        <v>178</v>
+      </c>
+      <c r="M14">
+        <v>178</v>
+      </c>
+      <c r="N14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1931</v>
+      </c>
+      <c r="B15">
+        <v>254</v>
+      </c>
+      <c r="C15">
+        <v>236</v>
+      </c>
+      <c r="D15">
+        <v>211</v>
+      </c>
+      <c r="E15">
+        <v>211</v>
+      </c>
+      <c r="F15">
+        <v>211</v>
+      </c>
+      <c r="G15">
+        <v>211</v>
+      </c>
+      <c r="H15">
+        <v>178</v>
+      </c>
+      <c r="I15">
+        <v>178</v>
+      </c>
+      <c r="J15">
+        <v>178</v>
+      </c>
+      <c r="K15">
+        <v>178</v>
+      </c>
+      <c r="L15">
+        <v>178</v>
+      </c>
+      <c r="M15">
+        <v>178</v>
+      </c>
+      <c r="N15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1932</v>
+      </c>
+      <c r="B16">
+        <v>254</v>
+      </c>
+      <c r="C16">
+        <v>236</v>
+      </c>
+      <c r="D16">
+        <v>211</v>
+      </c>
+      <c r="E16">
+        <v>211</v>
+      </c>
+      <c r="F16">
+        <v>211</v>
+      </c>
+      <c r="G16">
+        <v>211</v>
+      </c>
+      <c r="H16">
+        <v>178</v>
+      </c>
+      <c r="I16">
+        <v>178</v>
+      </c>
+      <c r="J16">
+        <v>178</v>
+      </c>
+      <c r="K16">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>178</v>
+      </c>
+      <c r="M16">
+        <v>178</v>
+      </c>
+      <c r="N16">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1933</v>
+      </c>
+      <c r="B17">
+        <v>254</v>
+      </c>
+      <c r="C17">
+        <v>236</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>211</v>
+      </c>
+      <c r="F17">
+        <v>211</v>
+      </c>
+      <c r="G17">
+        <v>211</v>
+      </c>
+      <c r="H17">
+        <v>178</v>
+      </c>
+      <c r="I17">
+        <v>178</v>
+      </c>
+      <c r="J17">
+        <v>178</v>
+      </c>
+      <c r="K17">
+        <v>178</v>
+      </c>
+      <c r="L17">
+        <v>178</v>
+      </c>
+      <c r="M17">
+        <v>178</v>
+      </c>
+      <c r="N17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1934</v>
+      </c>
+      <c r="B18">
+        <v>254</v>
+      </c>
+      <c r="C18">
+        <v>236</v>
+      </c>
+      <c r="D18">
+        <v>211</v>
+      </c>
+      <c r="E18">
+        <v>211</v>
+      </c>
+      <c r="F18">
+        <v>211</v>
+      </c>
+      <c r="G18">
+        <v>211</v>
+      </c>
+      <c r="H18">
+        <v>178</v>
+      </c>
+      <c r="I18">
+        <v>178</v>
+      </c>
+      <c r="J18">
+        <v>178</v>
+      </c>
+      <c r="K18">
+        <v>178</v>
+      </c>
+      <c r="L18">
+        <v>178</v>
+      </c>
+      <c r="M18">
+        <v>178</v>
+      </c>
+      <c r="N18">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1935</v>
+      </c>
+      <c r="B19">
+        <v>254</v>
+      </c>
+      <c r="C19">
+        <v>236</v>
+      </c>
+      <c r="D19">
+        <v>211</v>
+      </c>
+      <c r="E19">
+        <v>211</v>
+      </c>
+      <c r="F19">
+        <v>211</v>
+      </c>
+      <c r="G19">
+        <v>211</v>
+      </c>
+      <c r="H19">
+        <v>178</v>
+      </c>
+      <c r="I19">
+        <v>178</v>
+      </c>
+      <c r="J19">
+        <v>178</v>
+      </c>
+      <c r="K19">
+        <v>178</v>
+      </c>
+      <c r="L19">
+        <v>178</v>
+      </c>
+      <c r="M19">
+        <v>178</v>
+      </c>
+      <c r="N19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1936</v>
+      </c>
+      <c r="B20">
+        <v>254</v>
+      </c>
+      <c r="C20">
+        <v>236</v>
+      </c>
+      <c r="D20">
+        <v>211</v>
+      </c>
+      <c r="E20">
+        <v>211</v>
+      </c>
+      <c r="F20">
+        <v>211</v>
+      </c>
+      <c r="G20">
+        <v>211</v>
+      </c>
+      <c r="H20">
+        <v>178</v>
+      </c>
+      <c r="I20">
+        <v>178</v>
+      </c>
+      <c r="J20">
+        <v>178</v>
+      </c>
+      <c r="K20">
+        <v>178</v>
+      </c>
+      <c r="L20">
+        <v>178</v>
+      </c>
+      <c r="M20">
+        <v>178</v>
+      </c>
+      <c r="N20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1937</v>
+      </c>
+      <c r="B21">
+        <v>254</v>
+      </c>
+      <c r="C21">
+        <v>236</v>
+      </c>
+      <c r="D21">
+        <v>211</v>
+      </c>
+      <c r="E21">
+        <v>211</v>
+      </c>
+      <c r="F21">
+        <v>211</v>
+      </c>
+      <c r="G21">
+        <v>211</v>
+      </c>
+      <c r="H21">
+        <v>178</v>
+      </c>
+      <c r="I21">
+        <v>178</v>
+      </c>
+      <c r="J21">
+        <v>178</v>
+      </c>
+      <c r="K21">
+        <v>178</v>
+      </c>
+      <c r="L21">
+        <v>178</v>
+      </c>
+      <c r="M21">
+        <v>178</v>
+      </c>
+      <c r="N21">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1938</v>
+      </c>
+      <c r="B22">
+        <v>254</v>
+      </c>
+      <c r="C22">
+        <v>236</v>
+      </c>
+      <c r="D22">
+        <v>211</v>
+      </c>
+      <c r="E22">
+        <v>211</v>
+      </c>
+      <c r="F22">
+        <v>211</v>
+      </c>
+      <c r="G22">
+        <v>211</v>
+      </c>
+      <c r="H22">
+        <v>178</v>
+      </c>
+      <c r="I22">
+        <v>178</v>
+      </c>
+      <c r="J22">
+        <v>178</v>
+      </c>
+      <c r="K22">
+        <v>178</v>
+      </c>
+      <c r="L22">
+        <v>178</v>
+      </c>
+      <c r="M22">
+        <v>178</v>
+      </c>
+      <c r="N22">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1939</v>
+      </c>
+      <c r="B23">
+        <v>254</v>
+      </c>
+      <c r="C23">
+        <v>236</v>
+      </c>
+      <c r="D23">
+        <v>211</v>
+      </c>
+      <c r="E23">
+        <v>211</v>
+      </c>
+      <c r="F23">
+        <v>211</v>
+      </c>
+      <c r="G23">
+        <v>211</v>
+      </c>
+      <c r="H23">
+        <v>178</v>
+      </c>
+      <c r="I23">
+        <v>178</v>
+      </c>
+      <c r="J23">
+        <v>178</v>
+      </c>
+      <c r="K23">
+        <v>178</v>
+      </c>
+      <c r="L23">
+        <v>178</v>
+      </c>
+      <c r="M23">
+        <v>178</v>
+      </c>
+      <c r="N23">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1940</v>
+      </c>
+      <c r="B24">
+        <v>254</v>
+      </c>
+      <c r="C24">
+        <v>236</v>
+      </c>
+      <c r="D24">
+        <v>211</v>
+      </c>
+      <c r="E24">
+        <v>211</v>
+      </c>
+      <c r="F24">
+        <v>211</v>
+      </c>
+      <c r="G24">
+        <v>211</v>
+      </c>
+      <c r="H24">
+        <v>178</v>
+      </c>
+      <c r="I24">
+        <v>178</v>
+      </c>
+      <c r="J24">
+        <v>178</v>
+      </c>
+      <c r="K24">
+        <v>178</v>
+      </c>
+      <c r="L24">
+        <v>178</v>
+      </c>
+      <c r="M24">
+        <v>178</v>
+      </c>
+      <c r="N24">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1941</v>
+      </c>
+      <c r="B25">
+        <v>254</v>
+      </c>
+      <c r="C25">
+        <v>236</v>
+      </c>
+      <c r="D25">
+        <v>211</v>
+      </c>
+      <c r="E25">
+        <v>211</v>
+      </c>
+      <c r="F25">
+        <v>211</v>
+      </c>
+      <c r="G25">
+        <v>211</v>
+      </c>
+      <c r="H25">
+        <v>178</v>
+      </c>
+      <c r="I25">
+        <v>178</v>
+      </c>
+      <c r="J25">
+        <v>178</v>
+      </c>
+      <c r="K25">
+        <v>178</v>
+      </c>
+      <c r="L25">
+        <v>178</v>
+      </c>
+      <c r="M25">
+        <v>178</v>
+      </c>
+      <c r="N25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1942</v>
+      </c>
+      <c r="B26">
+        <v>254</v>
+      </c>
+      <c r="C26">
+        <v>236</v>
+      </c>
+      <c r="D26">
+        <v>211</v>
+      </c>
+      <c r="E26">
+        <v>211</v>
+      </c>
+      <c r="F26">
+        <v>211</v>
+      </c>
+      <c r="G26">
+        <v>211</v>
+      </c>
+      <c r="H26">
+        <v>178</v>
+      </c>
+      <c r="I26">
+        <v>178</v>
+      </c>
+      <c r="J26">
+        <v>178</v>
+      </c>
+      <c r="K26">
+        <v>178</v>
+      </c>
+      <c r="L26">
+        <v>178</v>
+      </c>
+      <c r="M26">
+        <v>178</v>
+      </c>
+      <c r="N26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1943</v>
+      </c>
+      <c r="B27">
+        <v>254</v>
+      </c>
+      <c r="C27">
+        <v>236</v>
+      </c>
+      <c r="D27">
+        <v>211</v>
+      </c>
+      <c r="E27">
+        <v>211</v>
+      </c>
+      <c r="F27">
+        <v>211</v>
+      </c>
+      <c r="G27">
+        <v>211</v>
+      </c>
+      <c r="H27">
+        <v>178</v>
+      </c>
+      <c r="I27">
+        <v>178</v>
+      </c>
+      <c r="J27">
+        <v>178</v>
+      </c>
+      <c r="K27">
+        <v>178</v>
+      </c>
+      <c r="L27">
+        <v>178</v>
+      </c>
+      <c r="M27">
+        <v>178</v>
+      </c>
+      <c r="N27">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1944</v>
+      </c>
+      <c r="B28">
+        <v>254</v>
+      </c>
+      <c r="C28">
+        <v>236</v>
+      </c>
+      <c r="D28">
+        <v>211</v>
+      </c>
+      <c r="E28">
+        <v>211</v>
+      </c>
+      <c r="F28">
+        <v>211</v>
+      </c>
+      <c r="G28">
+        <v>211</v>
+      </c>
+      <c r="H28">
+        <v>178</v>
+      </c>
+      <c r="I28">
+        <v>178</v>
+      </c>
+      <c r="J28">
+        <v>178</v>
+      </c>
+      <c r="K28">
+        <v>178</v>
+      </c>
+      <c r="L28">
+        <v>178</v>
+      </c>
+      <c r="M28">
+        <v>178</v>
+      </c>
+      <c r="N28">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1945</v>
+      </c>
+      <c r="B29">
+        <v>254</v>
+      </c>
+      <c r="C29">
+        <v>236</v>
+      </c>
+      <c r="D29">
+        <v>211</v>
+      </c>
+      <c r="E29">
+        <v>211</v>
+      </c>
+      <c r="F29">
+        <v>211</v>
+      </c>
+      <c r="G29">
+        <v>211</v>
+      </c>
+      <c r="H29">
+        <v>178</v>
+      </c>
+      <c r="I29">
+        <v>178</v>
+      </c>
+      <c r="J29">
+        <v>178</v>
+      </c>
+      <c r="K29">
+        <v>178</v>
+      </c>
+      <c r="L29">
+        <v>178</v>
+      </c>
+      <c r="M29">
+        <v>178</v>
+      </c>
+      <c r="N29">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1946</v>
+      </c>
+      <c r="B30">
+        <v>254</v>
+      </c>
+      <c r="C30">
+        <v>236</v>
+      </c>
+      <c r="D30">
+        <v>211</v>
+      </c>
+      <c r="E30">
+        <v>211</v>
+      </c>
+      <c r="F30">
+        <v>211</v>
+      </c>
+      <c r="G30">
+        <v>211</v>
+      </c>
+      <c r="H30">
+        <v>178</v>
+      </c>
+      <c r="I30">
+        <v>178</v>
+      </c>
+      <c r="J30">
+        <v>178</v>
+      </c>
+      <c r="K30">
+        <v>178</v>
+      </c>
+      <c r="L30">
+        <v>178</v>
+      </c>
+      <c r="M30">
+        <v>178</v>
+      </c>
+      <c r="N30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1947</v>
+      </c>
+      <c r="B31">
+        <v>254</v>
+      </c>
+      <c r="C31">
+        <v>236</v>
+      </c>
+      <c r="D31">
+        <v>211</v>
+      </c>
+      <c r="E31">
+        <v>211</v>
+      </c>
+      <c r="F31">
+        <v>211</v>
+      </c>
+      <c r="G31">
+        <v>211</v>
+      </c>
+      <c r="H31">
+        <v>178</v>
+      </c>
+      <c r="I31">
+        <v>178</v>
+      </c>
+      <c r="J31">
+        <v>178</v>
+      </c>
+      <c r="K31">
+        <v>178</v>
+      </c>
+      <c r="L31">
+        <v>178</v>
+      </c>
+      <c r="M31">
+        <v>178</v>
+      </c>
+      <c r="N31">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1948</v>
+      </c>
+      <c r="B32">
+        <v>254</v>
+      </c>
+      <c r="C32">
+        <v>236</v>
+      </c>
+      <c r="D32">
+        <v>211</v>
+      </c>
+      <c r="E32">
+        <v>211</v>
+      </c>
+      <c r="F32">
+        <v>211</v>
+      </c>
+      <c r="G32">
+        <v>211</v>
+      </c>
+      <c r="H32">
+        <v>178</v>
+      </c>
+      <c r="I32">
+        <v>178</v>
+      </c>
+      <c r="J32">
+        <v>178</v>
+      </c>
+      <c r="K32">
+        <v>178</v>
+      </c>
+      <c r="L32">
+        <v>178</v>
+      </c>
+      <c r="M32">
+        <v>178</v>
+      </c>
+      <c r="N32">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1949</v>
+      </c>
+      <c r="B33">
+        <v>236</v>
+      </c>
+      <c r="C33">
+        <v>219</v>
+      </c>
+      <c r="D33">
+        <v>192</v>
+      </c>
+      <c r="E33">
+        <v>192</v>
+      </c>
+      <c r="F33">
+        <v>192</v>
+      </c>
+      <c r="G33">
+        <v>192</v>
+      </c>
+      <c r="H33">
+        <v>166</v>
+      </c>
+      <c r="I33">
+        <v>166</v>
+      </c>
+      <c r="J33">
+        <v>166</v>
+      </c>
+      <c r="K33">
+        <v>166</v>
+      </c>
+      <c r="L33">
+        <v>166</v>
+      </c>
+      <c r="M33">
+        <v>166</v>
+      </c>
+      <c r="N33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1950</v>
+      </c>
+      <c r="B34">
+        <v>236</v>
+      </c>
+      <c r="C34">
+        <v>219</v>
+      </c>
+      <c r="D34">
+        <v>192</v>
+      </c>
+      <c r="E34">
+        <v>192</v>
+      </c>
+      <c r="F34">
+        <v>192</v>
+      </c>
+      <c r="G34">
+        <v>192</v>
+      </c>
+      <c r="H34">
+        <v>166</v>
+      </c>
+      <c r="I34">
+        <v>166</v>
+      </c>
+      <c r="J34">
+        <v>166</v>
+      </c>
+      <c r="K34">
+        <v>166</v>
+      </c>
+      <c r="L34">
+        <v>166</v>
+      </c>
+      <c r="M34">
+        <v>166</v>
+      </c>
+      <c r="N34">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1951</v>
+      </c>
+      <c r="B35">
+        <v>236</v>
+      </c>
+      <c r="C35">
+        <v>219</v>
+      </c>
+      <c r="D35">
+        <v>192</v>
+      </c>
+      <c r="E35">
+        <v>192</v>
+      </c>
+      <c r="F35">
+        <v>192</v>
+      </c>
+      <c r="G35">
+        <v>192</v>
+      </c>
+      <c r="H35">
+        <v>166</v>
+      </c>
+      <c r="I35">
+        <v>166</v>
+      </c>
+      <c r="J35">
+        <v>166</v>
+      </c>
+      <c r="K35">
+        <v>166</v>
+      </c>
+      <c r="L35">
+        <v>166</v>
+      </c>
+      <c r="M35">
+        <v>166</v>
+      </c>
+      <c r="N35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1952</v>
+      </c>
+      <c r="B36">
+        <v>236</v>
+      </c>
+      <c r="C36">
+        <v>219</v>
+      </c>
+      <c r="D36">
+        <v>192</v>
+      </c>
+      <c r="E36">
+        <v>192</v>
+      </c>
+      <c r="F36">
+        <v>192</v>
+      </c>
+      <c r="G36">
+        <v>192</v>
+      </c>
+      <c r="H36">
+        <v>166</v>
+      </c>
+      <c r="I36">
+        <v>166</v>
+      </c>
+      <c r="J36">
+        <v>166</v>
+      </c>
+      <c r="K36">
+        <v>166</v>
+      </c>
+      <c r="L36">
+        <v>166</v>
+      </c>
+      <c r="M36">
+        <v>166</v>
+      </c>
+      <c r="N36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1953</v>
+      </c>
+      <c r="B37">
+        <v>236</v>
+      </c>
+      <c r="C37">
+        <v>219</v>
+      </c>
+      <c r="D37">
+        <v>192</v>
+      </c>
+      <c r="E37">
+        <v>192</v>
+      </c>
+      <c r="F37">
+        <v>192</v>
+      </c>
+      <c r="G37">
+        <v>192</v>
+      </c>
+      <c r="H37">
+        <v>166</v>
+      </c>
+      <c r="I37">
+        <v>166</v>
+      </c>
+      <c r="J37">
+        <v>166</v>
+      </c>
+      <c r="K37">
+        <v>166</v>
+      </c>
+      <c r="L37">
+        <v>166</v>
+      </c>
+      <c r="M37">
+        <v>166</v>
+      </c>
+      <c r="N37">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1954</v>
+      </c>
+      <c r="B38">
+        <v>236</v>
+      </c>
+      <c r="C38">
+        <v>219</v>
+      </c>
+      <c r="D38">
+        <v>192</v>
+      </c>
+      <c r="E38">
+        <v>192</v>
+      </c>
+      <c r="F38">
+        <v>192</v>
+      </c>
+      <c r="G38">
+        <v>192</v>
+      </c>
+      <c r="H38">
+        <v>166</v>
+      </c>
+      <c r="I38">
+        <v>166</v>
+      </c>
+      <c r="J38">
+        <v>166</v>
+      </c>
+      <c r="K38">
+        <v>166</v>
+      </c>
+      <c r="L38">
+        <v>166</v>
+      </c>
+      <c r="M38">
+        <v>166</v>
+      </c>
+      <c r="N38">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1955</v>
+      </c>
+      <c r="B39">
+        <v>236</v>
+      </c>
+      <c r="C39">
+        <v>219</v>
+      </c>
+      <c r="D39">
+        <v>192</v>
+      </c>
+      <c r="E39">
+        <v>192</v>
+      </c>
+      <c r="F39">
+        <v>192</v>
+      </c>
+      <c r="G39">
+        <v>192</v>
+      </c>
+      <c r="H39">
+        <v>166</v>
+      </c>
+      <c r="I39">
+        <v>166</v>
+      </c>
+      <c r="J39">
+        <v>166</v>
+      </c>
+      <c r="K39">
+        <v>166</v>
+      </c>
+      <c r="L39">
+        <v>166</v>
+      </c>
+      <c r="M39">
+        <v>166</v>
+      </c>
+      <c r="N39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1956</v>
+      </c>
+      <c r="B40">
+        <v>236</v>
+      </c>
+      <c r="C40">
+        <v>219</v>
+      </c>
+      <c r="D40">
+        <v>192</v>
+      </c>
+      <c r="E40">
+        <v>192</v>
+      </c>
+      <c r="F40">
+        <v>192</v>
+      </c>
+      <c r="G40">
+        <v>192</v>
+      </c>
+      <c r="H40">
+        <v>166</v>
+      </c>
+      <c r="I40">
+        <v>166</v>
+      </c>
+      <c r="J40">
+        <v>166</v>
+      </c>
+      <c r="K40">
+        <v>166</v>
+      </c>
+      <c r="L40">
+        <v>166</v>
+      </c>
+      <c r="M40">
+        <v>166</v>
+      </c>
+      <c r="N40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1957</v>
+      </c>
+      <c r="B41">
+        <v>236</v>
+      </c>
+      <c r="C41">
+        <v>219</v>
+      </c>
+      <c r="D41">
+        <v>192</v>
+      </c>
+      <c r="E41">
+        <v>192</v>
+      </c>
+      <c r="F41">
+        <v>192</v>
+      </c>
+      <c r="G41">
+        <v>192</v>
+      </c>
+      <c r="H41">
+        <v>166</v>
+      </c>
+      <c r="I41">
+        <v>166</v>
+      </c>
+      <c r="J41">
+        <v>166</v>
+      </c>
+      <c r="K41">
+        <v>166</v>
+      </c>
+      <c r="L41">
+        <v>166</v>
+      </c>
+      <c r="M41">
+        <v>166</v>
+      </c>
+      <c r="N41">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1958</v>
+      </c>
+      <c r="B42">
+        <v>236</v>
+      </c>
+      <c r="C42">
+        <v>219</v>
+      </c>
+      <c r="D42">
+        <v>192</v>
+      </c>
+      <c r="E42">
+        <v>192</v>
+      </c>
+      <c r="F42">
+        <v>192</v>
+      </c>
+      <c r="G42">
+        <v>192</v>
+      </c>
+      <c r="H42">
+        <v>166</v>
+      </c>
+      <c r="I42">
+        <v>166</v>
+      </c>
+      <c r="J42">
+        <v>166</v>
+      </c>
+      <c r="K42">
+        <v>166</v>
+      </c>
+      <c r="L42">
+        <v>166</v>
+      </c>
+      <c r="M42">
+        <v>166</v>
+      </c>
+      <c r="N42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1959</v>
+      </c>
+      <c r="B43">
+        <v>236</v>
+      </c>
+      <c r="C43">
+        <v>219</v>
+      </c>
+      <c r="D43">
+        <v>192</v>
+      </c>
+      <c r="E43">
+        <v>192</v>
+      </c>
+      <c r="F43">
+        <v>192</v>
+      </c>
+      <c r="G43">
+        <v>192</v>
+      </c>
+      <c r="H43">
+        <v>166</v>
+      </c>
+      <c r="I43">
+        <v>166</v>
+      </c>
+      <c r="J43">
+        <v>166</v>
+      </c>
+      <c r="K43">
+        <v>166</v>
+      </c>
+      <c r="L43">
+        <v>166</v>
+      </c>
+      <c r="M43">
+        <v>166</v>
+      </c>
+      <c r="N43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1960</v>
+      </c>
+      <c r="B44">
+        <v>236</v>
+      </c>
+      <c r="C44">
+        <v>219</v>
+      </c>
+      <c r="D44">
+        <v>192</v>
+      </c>
+      <c r="E44">
+        <v>192</v>
+      </c>
+      <c r="F44">
+        <v>192</v>
+      </c>
+      <c r="G44">
+        <v>192</v>
+      </c>
+      <c r="H44">
+        <v>166</v>
+      </c>
+      <c r="I44">
+        <v>166</v>
+      </c>
+      <c r="J44">
+        <v>166</v>
+      </c>
+      <c r="K44">
+        <v>166</v>
+      </c>
+      <c r="L44">
+        <v>166</v>
+      </c>
+      <c r="M44">
+        <v>166</v>
+      </c>
+      <c r="N44">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1961</v>
+      </c>
+      <c r="B45">
+        <v>236</v>
+      </c>
+      <c r="C45">
+        <v>219</v>
+      </c>
+      <c r="D45">
+        <v>192</v>
+      </c>
+      <c r="E45">
+        <v>192</v>
+      </c>
+      <c r="F45">
+        <v>192</v>
+      </c>
+      <c r="G45">
+        <v>192</v>
+      </c>
+      <c r="H45">
+        <v>166</v>
+      </c>
+      <c r="I45">
+        <v>166</v>
+      </c>
+      <c r="J45">
+        <v>166</v>
+      </c>
+      <c r="K45">
+        <v>166</v>
+      </c>
+      <c r="L45">
+        <v>166</v>
+      </c>
+      <c r="M45">
+        <v>166</v>
+      </c>
+      <c r="N45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1962</v>
+      </c>
+      <c r="B46">
+        <v>236</v>
+      </c>
+      <c r="C46">
+        <v>219</v>
+      </c>
+      <c r="D46">
+        <v>192</v>
+      </c>
+      <c r="E46">
+        <v>192</v>
+      </c>
+      <c r="F46">
+        <v>192</v>
+      </c>
+      <c r="G46">
+        <v>192</v>
+      </c>
+      <c r="H46">
+        <v>166</v>
+      </c>
+      <c r="I46">
+        <v>166</v>
+      </c>
+      <c r="J46">
+        <v>166</v>
+      </c>
+      <c r="K46">
+        <v>166</v>
+      </c>
+      <c r="L46">
+        <v>166</v>
+      </c>
+      <c r="M46">
+        <v>166</v>
+      </c>
+      <c r="N46">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1963</v>
+      </c>
+      <c r="B47">
+        <v>236</v>
+      </c>
+      <c r="C47">
+        <v>219</v>
+      </c>
+      <c r="D47">
+        <v>192</v>
+      </c>
+      <c r="E47">
+        <v>192</v>
+      </c>
+      <c r="F47">
+        <v>192</v>
+      </c>
+      <c r="G47">
+        <v>192</v>
+      </c>
+      <c r="H47">
+        <v>166</v>
+      </c>
+      <c r="I47">
+        <v>166</v>
+      </c>
+      <c r="J47">
+        <v>166</v>
+      </c>
+      <c r="K47">
+        <v>166</v>
+      </c>
+      <c r="L47">
+        <v>166</v>
+      </c>
+      <c r="M47">
+        <v>166</v>
+      </c>
+      <c r="N47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1964</v>
+      </c>
+      <c r="B48">
+        <v>236</v>
+      </c>
+      <c r="C48">
+        <v>219</v>
+      </c>
+      <c r="D48">
+        <v>192</v>
+      </c>
+      <c r="E48">
+        <v>192</v>
+      </c>
+      <c r="F48">
+        <v>192</v>
+      </c>
+      <c r="G48">
+        <v>192</v>
+      </c>
+      <c r="H48">
+        <v>166</v>
+      </c>
+      <c r="I48">
+        <v>166</v>
+      </c>
+      <c r="J48">
+        <v>166</v>
+      </c>
+      <c r="K48">
+        <v>166</v>
+      </c>
+      <c r="L48">
+        <v>166</v>
+      </c>
+      <c r="M48">
+        <v>166</v>
+      </c>
+      <c r="N48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1965</v>
+      </c>
+      <c r="B49">
+        <v>236</v>
+      </c>
+      <c r="C49">
+        <v>219</v>
+      </c>
+      <c r="D49">
+        <v>192</v>
+      </c>
+      <c r="E49">
+        <v>192</v>
+      </c>
+      <c r="F49">
+        <v>192</v>
+      </c>
+      <c r="G49">
+        <v>192</v>
+      </c>
+      <c r="H49">
+        <v>166</v>
+      </c>
+      <c r="I49">
+        <v>166</v>
+      </c>
+      <c r="J49">
+        <v>166</v>
+      </c>
+      <c r="K49">
+        <v>166</v>
+      </c>
+      <c r="L49">
+        <v>166</v>
+      </c>
+      <c r="M49">
+        <v>166</v>
+      </c>
+      <c r="N49">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1966</v>
+      </c>
+      <c r="B50">
+        <v>236</v>
+      </c>
+      <c r="C50">
+        <v>219</v>
+      </c>
+      <c r="D50">
+        <v>192</v>
+      </c>
+      <c r="E50">
+        <v>192</v>
+      </c>
+      <c r="F50">
+        <v>192</v>
+      </c>
+      <c r="G50">
+        <v>192</v>
+      </c>
+      <c r="H50">
+        <v>166</v>
+      </c>
+      <c r="I50">
+        <v>166</v>
+      </c>
+      <c r="J50">
+        <v>166</v>
+      </c>
+      <c r="K50">
+        <v>166</v>
+      </c>
+      <c r="L50">
+        <v>166</v>
+      </c>
+      <c r="M50">
+        <v>166</v>
+      </c>
+      <c r="N50">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1967</v>
+      </c>
+      <c r="B51">
+        <v>236</v>
+      </c>
+      <c r="C51">
+        <v>219</v>
+      </c>
+      <c r="D51">
+        <v>192</v>
+      </c>
+      <c r="E51">
+        <v>192</v>
+      </c>
+      <c r="F51">
+        <v>192</v>
+      </c>
+      <c r="G51">
+        <v>192</v>
+      </c>
+      <c r="H51">
+        <v>166</v>
+      </c>
+      <c r="I51">
+        <v>166</v>
+      </c>
+      <c r="J51">
+        <v>166</v>
+      </c>
+      <c r="K51">
+        <v>166</v>
+      </c>
+      <c r="L51">
+        <v>166</v>
+      </c>
+      <c r="M51">
+        <v>166</v>
+      </c>
+      <c r="N51">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1968</v>
+      </c>
+      <c r="B52">
+        <v>236</v>
+      </c>
+      <c r="C52">
+        <v>219</v>
+      </c>
+      <c r="D52">
+        <v>192</v>
+      </c>
+      <c r="E52">
+        <v>192</v>
+      </c>
+      <c r="F52">
+        <v>192</v>
+      </c>
+      <c r="G52">
+        <v>192</v>
+      </c>
+      <c r="H52">
+        <v>166</v>
+      </c>
+      <c r="I52">
+        <v>166</v>
+      </c>
+      <c r="J52">
+        <v>166</v>
+      </c>
+      <c r="K52">
+        <v>166</v>
+      </c>
+      <c r="L52">
+        <v>166</v>
+      </c>
+      <c r="M52">
+        <v>166</v>
+      </c>
+      <c r="N52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1969</v>
+      </c>
+      <c r="B53">
+        <v>236</v>
+      </c>
+      <c r="C53">
+        <v>219</v>
+      </c>
+      <c r="D53">
+        <v>192</v>
+      </c>
+      <c r="E53">
+        <v>192</v>
+      </c>
+      <c r="F53">
+        <v>192</v>
+      </c>
+      <c r="G53">
+        <v>192</v>
+      </c>
+      <c r="H53">
+        <v>166</v>
+      </c>
+      <c r="I53">
+        <v>166</v>
+      </c>
+      <c r="J53">
+        <v>166</v>
+      </c>
+      <c r="K53">
+        <v>166</v>
+      </c>
+      <c r="L53">
+        <v>166</v>
+      </c>
+      <c r="M53">
+        <v>166</v>
+      </c>
+      <c r="N53">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1970</v>
+      </c>
+      <c r="B54">
+        <v>236</v>
+      </c>
+      <c r="C54">
+        <v>219</v>
+      </c>
+      <c r="D54">
+        <v>192</v>
+      </c>
+      <c r="E54">
+        <v>192</v>
+      </c>
+      <c r="F54">
+        <v>192</v>
+      </c>
+      <c r="G54">
+        <v>192</v>
+      </c>
+      <c r="H54">
+        <v>166</v>
+      </c>
+      <c r="I54">
+        <v>166</v>
+      </c>
+      <c r="J54">
+        <v>166</v>
+      </c>
+      <c r="K54">
+        <v>166</v>
+      </c>
+      <c r="L54">
+        <v>166</v>
+      </c>
+      <c r="M54">
+        <v>166</v>
+      </c>
+      <c r="N54">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1971</v>
+      </c>
+      <c r="B55">
+        <v>236</v>
+      </c>
+      <c r="C55">
+        <v>219</v>
+      </c>
+      <c r="D55">
+        <v>192</v>
+      </c>
+      <c r="E55">
+        <v>192</v>
+      </c>
+      <c r="F55">
+        <v>192</v>
+      </c>
+      <c r="G55">
+        <v>192</v>
+      </c>
+      <c r="H55">
+        <v>166</v>
+      </c>
+      <c r="I55">
+        <v>166</v>
+      </c>
+      <c r="J55">
+        <v>166</v>
+      </c>
+      <c r="K55">
+        <v>166</v>
+      </c>
+      <c r="L55">
+        <v>166</v>
+      </c>
+      <c r="M55">
+        <v>166</v>
+      </c>
+      <c r="N55">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1972</v>
+      </c>
+      <c r="B56">
+        <v>236</v>
+      </c>
+      <c r="C56">
+        <v>219</v>
+      </c>
+      <c r="D56">
+        <v>192</v>
+      </c>
+      <c r="E56">
+        <v>192</v>
+      </c>
+      <c r="F56">
+        <v>192</v>
+      </c>
+      <c r="G56">
+        <v>192</v>
+      </c>
+      <c r="H56">
+        <v>166</v>
+      </c>
+      <c r="I56">
+        <v>166</v>
+      </c>
+      <c r="J56">
+        <v>166</v>
+      </c>
+      <c r="K56">
+        <v>166</v>
+      </c>
+      <c r="L56">
+        <v>166</v>
+      </c>
+      <c r="M56">
+        <v>166</v>
+      </c>
+      <c r="N56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1973</v>
+      </c>
+      <c r="B57">
+        <v>236</v>
+      </c>
+      <c r="C57">
+        <v>219</v>
+      </c>
+      <c r="D57">
+        <v>192</v>
+      </c>
+      <c r="E57">
+        <v>192</v>
+      </c>
+      <c r="F57">
+        <v>192</v>
+      </c>
+      <c r="G57">
+        <v>192</v>
+      </c>
+      <c r="H57">
+        <v>166</v>
+      </c>
+      <c r="I57">
+        <v>166</v>
+      </c>
+      <c r="J57">
+        <v>166</v>
+      </c>
+      <c r="K57">
+        <v>166</v>
+      </c>
+      <c r="L57">
+        <v>166</v>
+      </c>
+      <c r="M57">
+        <v>166</v>
+      </c>
+      <c r="N57">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1974</v>
+      </c>
+      <c r="B58">
+        <v>236</v>
+      </c>
+      <c r="C58">
+        <v>219</v>
+      </c>
+      <c r="D58">
+        <v>192</v>
+      </c>
+      <c r="E58">
+        <v>192</v>
+      </c>
+      <c r="F58">
+        <v>192</v>
+      </c>
+      <c r="G58">
+        <v>192</v>
+      </c>
+      <c r="H58">
+        <v>166</v>
+      </c>
+      <c r="I58">
+        <v>166</v>
+      </c>
+      <c r="J58">
+        <v>166</v>
+      </c>
+      <c r="K58">
+        <v>166</v>
+      </c>
+      <c r="L58">
+        <v>166</v>
+      </c>
+      <c r="M58">
+        <v>166</v>
+      </c>
+      <c r="N58">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1975</v>
+      </c>
+      <c r="B59">
+        <v>236</v>
+      </c>
+      <c r="C59">
+        <v>219</v>
+      </c>
+      <c r="D59">
+        <v>192</v>
+      </c>
+      <c r="E59">
+        <v>192</v>
+      </c>
+      <c r="F59">
+        <v>192</v>
+      </c>
+      <c r="G59">
+        <v>192</v>
+      </c>
+      <c r="H59">
+        <v>166</v>
+      </c>
+      <c r="I59">
+        <v>166</v>
+      </c>
+      <c r="J59">
+        <v>166</v>
+      </c>
+      <c r="K59">
+        <v>166</v>
+      </c>
+      <c r="L59">
+        <v>166</v>
+      </c>
+      <c r="M59">
+        <v>166</v>
+      </c>
+      <c r="N59">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1976</v>
+      </c>
+      <c r="B60">
+        <v>236</v>
+      </c>
+      <c r="C60">
+        <v>219</v>
+      </c>
+      <c r="D60">
+        <v>192</v>
+      </c>
+      <c r="E60">
+        <v>192</v>
+      </c>
+      <c r="F60">
+        <v>192</v>
+      </c>
+      <c r="G60">
+        <v>192</v>
+      </c>
+      <c r="H60">
+        <v>166</v>
+      </c>
+      <c r="I60">
+        <v>166</v>
+      </c>
+      <c r="J60">
+        <v>166</v>
+      </c>
+      <c r="K60">
+        <v>166</v>
+      </c>
+      <c r="L60">
+        <v>166</v>
+      </c>
+      <c r="M60">
+        <v>166</v>
+      </c>
+      <c r="N60">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1977</v>
+      </c>
+      <c r="B61">
+        <v>236</v>
+      </c>
+      <c r="C61">
+        <v>219</v>
+      </c>
+      <c r="D61">
+        <v>192</v>
+      </c>
+      <c r="E61">
+        <v>192</v>
+      </c>
+      <c r="F61">
+        <v>192</v>
+      </c>
+      <c r="G61">
+        <v>192</v>
+      </c>
+      <c r="H61">
+        <v>166</v>
+      </c>
+      <c r="I61">
+        <v>166</v>
+      </c>
+      <c r="J61">
+        <v>166</v>
+      </c>
+      <c r="K61">
+        <v>166</v>
+      </c>
+      <c r="L61">
+        <v>166</v>
+      </c>
+      <c r="M61">
+        <v>166</v>
+      </c>
+      <c r="N61">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1978</v>
+      </c>
+      <c r="B62">
+        <v>236</v>
+      </c>
+      <c r="C62">
+        <v>219</v>
+      </c>
+      <c r="D62">
+        <v>192</v>
+      </c>
+      <c r="E62">
+        <v>192</v>
+      </c>
+      <c r="F62">
+        <v>192</v>
+      </c>
+      <c r="G62">
+        <v>192</v>
+      </c>
+      <c r="H62">
+        <v>166</v>
+      </c>
+      <c r="I62">
+        <v>166</v>
+      </c>
+      <c r="J62">
+        <v>166</v>
+      </c>
+      <c r="K62">
+        <v>166</v>
+      </c>
+      <c r="L62">
+        <v>166</v>
+      </c>
+      <c r="M62">
+        <v>166</v>
+      </c>
+      <c r="N62">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1979</v>
+      </c>
+      <c r="B63">
+        <v>175</v>
+      </c>
+      <c r="C63">
+        <v>168</v>
+      </c>
+      <c r="D63">
+        <v>155</v>
+      </c>
+      <c r="E63">
+        <v>155</v>
+      </c>
+      <c r="F63">
+        <v>155</v>
+      </c>
+      <c r="G63">
+        <v>155</v>
+      </c>
+      <c r="H63">
+        <v>152</v>
+      </c>
+      <c r="I63">
+        <v>152</v>
+      </c>
+      <c r="J63">
+        <v>152</v>
+      </c>
+      <c r="K63">
+        <v>152</v>
+      </c>
+      <c r="L63">
+        <v>152</v>
+      </c>
+      <c r="M63">
+        <v>152</v>
+      </c>
+      <c r="N63">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1980</v>
+      </c>
+      <c r="B64">
+        <v>175</v>
+      </c>
+      <c r="C64">
+        <v>168</v>
+      </c>
+      <c r="D64">
+        <v>155</v>
+      </c>
+      <c r="E64">
+        <v>155</v>
+      </c>
+      <c r="F64">
+        <v>155</v>
+      </c>
+      <c r="G64">
+        <v>155</v>
+      </c>
+      <c r="H64">
+        <v>152</v>
+      </c>
+      <c r="I64">
+        <v>152</v>
+      </c>
+      <c r="J64">
+        <v>152</v>
+      </c>
+      <c r="K64">
+        <v>152</v>
+      </c>
+      <c r="L64">
+        <v>152</v>
+      </c>
+      <c r="M64">
+        <v>152</v>
+      </c>
+      <c r="N64">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1981</v>
+      </c>
+      <c r="B65">
+        <v>175</v>
+      </c>
+      <c r="C65">
+        <v>168</v>
+      </c>
+      <c r="D65">
+        <v>155</v>
+      </c>
+      <c r="E65">
+        <v>155</v>
+      </c>
+      <c r="F65">
+        <v>155</v>
+      </c>
+      <c r="G65">
+        <v>155</v>
+      </c>
+      <c r="H65">
+        <v>152</v>
+      </c>
+      <c r="I65">
+        <v>152</v>
+      </c>
+      <c r="J65">
+        <v>152</v>
+      </c>
+      <c r="K65">
+        <v>152</v>
+      </c>
+      <c r="L65">
+        <v>152</v>
+      </c>
+      <c r="M65">
+        <v>152</v>
+      </c>
+      <c r="N65">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1982</v>
+      </c>
+      <c r="B66">
+        <v>175</v>
+      </c>
+      <c r="C66">
+        <v>168</v>
+      </c>
+      <c r="D66">
+        <v>155</v>
+      </c>
+      <c r="E66">
+        <v>155</v>
+      </c>
+      <c r="F66">
+        <v>155</v>
+      </c>
+      <c r="G66">
+        <v>155</v>
+      </c>
+      <c r="H66">
+        <v>152</v>
+      </c>
+      <c r="I66">
+        <v>152</v>
+      </c>
+      <c r="J66">
+        <v>152</v>
+      </c>
+      <c r="K66">
+        <v>152</v>
+      </c>
+      <c r="L66">
+        <v>152</v>
+      </c>
+      <c r="M66">
+        <v>152</v>
+      </c>
+      <c r="N66">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1983</v>
+      </c>
+      <c r="B67">
+        <v>175</v>
+      </c>
+      <c r="C67">
+        <v>168</v>
+      </c>
+      <c r="D67">
+        <v>155</v>
+      </c>
+      <c r="E67">
+        <v>155</v>
+      </c>
+      <c r="F67">
+        <v>155</v>
+      </c>
+      <c r="G67">
+        <v>155</v>
+      </c>
+      <c r="H67">
+        <v>152</v>
+      </c>
+      <c r="I67">
+        <v>152</v>
+      </c>
+      <c r="J67">
+        <v>152</v>
+      </c>
+      <c r="K67">
+        <v>152</v>
+      </c>
+      <c r="L67">
+        <v>152</v>
+      </c>
+      <c r="M67">
+        <v>152</v>
+      </c>
+      <c r="N67">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1984</v>
+      </c>
+      <c r="B68">
+        <v>175</v>
+      </c>
+      <c r="C68">
+        <v>168</v>
+      </c>
+      <c r="D68">
+        <v>155</v>
+      </c>
+      <c r="E68">
+        <v>155</v>
+      </c>
+      <c r="F68">
+        <v>155</v>
+      </c>
+      <c r="G68">
+        <v>155</v>
+      </c>
+      <c r="H68">
+        <v>152</v>
+      </c>
+      <c r="I68">
+        <v>152</v>
+      </c>
+      <c r="J68">
+        <v>152</v>
+      </c>
+      <c r="K68">
+        <v>152</v>
+      </c>
+      <c r="L68">
+        <v>152</v>
+      </c>
+      <c r="M68">
+        <v>152</v>
+      </c>
+      <c r="N68">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1985</v>
+      </c>
+      <c r="B69">
+        <v>175</v>
+      </c>
+      <c r="C69">
+        <v>168</v>
+      </c>
+      <c r="D69">
+        <v>155</v>
+      </c>
+      <c r="E69">
+        <v>155</v>
+      </c>
+      <c r="F69">
+        <v>155</v>
+      </c>
+      <c r="G69">
+        <v>155</v>
+      </c>
+      <c r="H69">
+        <v>152</v>
+      </c>
+      <c r="I69">
+        <v>152</v>
+      </c>
+      <c r="J69">
+        <v>152</v>
+      </c>
+      <c r="K69">
+        <v>152</v>
+      </c>
+      <c r="L69">
+        <v>152</v>
+      </c>
+      <c r="M69">
+        <v>152</v>
+      </c>
+      <c r="N69">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1986</v>
+      </c>
+      <c r="B70">
+        <v>175</v>
+      </c>
+      <c r="C70">
+        <v>168</v>
+      </c>
+      <c r="D70">
+        <v>155</v>
+      </c>
+      <c r="E70">
+        <v>155</v>
+      </c>
+      <c r="F70">
+        <v>155</v>
+      </c>
+      <c r="G70">
+        <v>155</v>
+      </c>
+      <c r="H70">
+        <v>152</v>
+      </c>
+      <c r="I70">
+        <v>152</v>
+      </c>
+      <c r="J70">
+        <v>152</v>
+      </c>
+      <c r="K70">
+        <v>152</v>
+      </c>
+      <c r="L70">
+        <v>152</v>
+      </c>
+      <c r="M70">
+        <v>152</v>
+      </c>
+      <c r="N70">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1987</v>
+      </c>
+      <c r="B71">
+        <v>175</v>
+      </c>
+      <c r="C71">
+        <v>168</v>
+      </c>
+      <c r="D71">
+        <v>155</v>
+      </c>
+      <c r="E71">
+        <v>155</v>
+      </c>
+      <c r="F71">
+        <v>155</v>
+      </c>
+      <c r="G71">
+        <v>155</v>
+      </c>
+      <c r="H71">
+        <v>152</v>
+      </c>
+      <c r="I71">
+        <v>152</v>
+      </c>
+      <c r="J71">
+        <v>152</v>
+      </c>
+      <c r="K71">
+        <v>152</v>
+      </c>
+      <c r="L71">
+        <v>152</v>
+      </c>
+      <c r="M71">
+        <v>152</v>
+      </c>
+      <c r="N71">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1988</v>
+      </c>
+      <c r="B72">
+        <v>175</v>
+      </c>
+      <c r="C72">
+        <v>168</v>
+      </c>
+      <c r="D72">
+        <v>155</v>
+      </c>
+      <c r="E72">
+        <v>155</v>
+      </c>
+      <c r="F72">
+        <v>155</v>
+      </c>
+      <c r="G72">
+        <v>155</v>
+      </c>
+      <c r="H72">
+        <v>152</v>
+      </c>
+      <c r="I72">
+        <v>152</v>
+      </c>
+      <c r="J72">
+        <v>152</v>
+      </c>
+      <c r="K72">
+        <v>152</v>
+      </c>
+      <c r="L72">
+        <v>152</v>
+      </c>
+      <c r="M72">
+        <v>152</v>
+      </c>
+      <c r="N72">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1989</v>
+      </c>
+      <c r="B73">
+        <v>175</v>
+      </c>
+      <c r="C73">
+        <v>168</v>
+      </c>
+      <c r="D73">
+        <v>155</v>
+      </c>
+      <c r="E73">
+        <v>155</v>
+      </c>
+      <c r="F73">
+        <v>155</v>
+      </c>
+      <c r="G73">
+        <v>155</v>
+      </c>
+      <c r="H73">
+        <v>152</v>
+      </c>
+      <c r="I73">
+        <v>152</v>
+      </c>
+      <c r="J73">
+        <v>152</v>
+      </c>
+      <c r="K73">
+        <v>152</v>
+      </c>
+      <c r="L73">
+        <v>152</v>
+      </c>
+      <c r="M73">
+        <v>152</v>
+      </c>
+      <c r="N73">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1990</v>
+      </c>
+      <c r="B74">
+        <v>175</v>
+      </c>
+      <c r="C74">
+        <v>168</v>
+      </c>
+      <c r="D74">
+        <v>155</v>
+      </c>
+      <c r="E74">
+        <v>155</v>
+      </c>
+      <c r="F74">
+        <v>155</v>
+      </c>
+      <c r="G74">
+        <v>155</v>
+      </c>
+      <c r="H74">
+        <v>152</v>
+      </c>
+      <c r="I74">
+        <v>152</v>
+      </c>
+      <c r="J74">
+        <v>152</v>
+      </c>
+      <c r="K74">
+        <v>152</v>
+      </c>
+      <c r="L74">
+        <v>152</v>
+      </c>
+      <c r="M74">
+        <v>152</v>
+      </c>
+      <c r="N74">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1991</v>
+      </c>
+      <c r="B75">
+        <v>131</v>
+      </c>
+      <c r="C75">
+        <v>127</v>
+      </c>
+      <c r="D75">
+        <v>127</v>
+      </c>
+      <c r="E75">
+        <v>127</v>
+      </c>
+      <c r="F75">
+        <v>127</v>
+      </c>
+      <c r="G75">
+        <v>127</v>
+      </c>
+      <c r="H75">
+        <v>114</v>
+      </c>
+      <c r="I75">
+        <v>114</v>
+      </c>
+      <c r="J75">
+        <v>114</v>
+      </c>
+      <c r="K75">
+        <v>114</v>
+      </c>
+      <c r="L75">
+        <v>114</v>
+      </c>
+      <c r="M75">
+        <v>114</v>
+      </c>
+      <c r="N75">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1992</v>
+      </c>
+      <c r="B76">
+        <v>131</v>
+      </c>
+      <c r="C76">
+        <v>127</v>
+      </c>
+      <c r="D76">
+        <v>127</v>
+      </c>
+      <c r="E76">
+        <v>127</v>
+      </c>
+      <c r="F76">
+        <v>127</v>
+      </c>
+      <c r="G76">
+        <v>127</v>
+      </c>
+      <c r="H76">
+        <v>114</v>
+      </c>
+      <c r="I76">
+        <v>114</v>
+      </c>
+      <c r="J76">
+        <v>114</v>
+      </c>
+      <c r="K76">
+        <v>114</v>
+      </c>
+      <c r="L76">
+        <v>114</v>
+      </c>
+      <c r="M76">
+        <v>114</v>
+      </c>
+      <c r="N76">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1993</v>
+      </c>
+      <c r="B77">
+        <v>131</v>
+      </c>
+      <c r="C77">
+        <v>127</v>
+      </c>
+      <c r="D77">
+        <v>127</v>
+      </c>
+      <c r="E77">
+        <v>127</v>
+      </c>
+      <c r="F77">
+        <v>127</v>
+      </c>
+      <c r="G77">
+        <v>127</v>
+      </c>
+      <c r="H77">
+        <v>114</v>
+      </c>
+      <c r="I77">
+        <v>114</v>
+      </c>
+      <c r="J77">
+        <v>114</v>
+      </c>
+      <c r="K77">
+        <v>114</v>
+      </c>
+      <c r="L77">
+        <v>114</v>
+      </c>
+      <c r="M77">
+        <v>114</v>
+      </c>
+      <c r="N77">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1994</v>
+      </c>
+      <c r="B78">
+        <v>131</v>
+      </c>
+      <c r="C78">
+        <v>127</v>
+      </c>
+      <c r="D78">
+        <v>127</v>
+      </c>
+      <c r="E78">
+        <v>127</v>
+      </c>
+      <c r="F78">
+        <v>127</v>
+      </c>
+      <c r="G78">
+        <v>127</v>
+      </c>
+      <c r="H78">
+        <v>114</v>
+      </c>
+      <c r="I78">
+        <v>114</v>
+      </c>
+      <c r="J78">
+        <v>114</v>
+      </c>
+      <c r="K78">
+        <v>114</v>
+      </c>
+      <c r="L78">
+        <v>114</v>
+      </c>
+      <c r="M78">
+        <v>114</v>
+      </c>
+      <c r="N78">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1995</v>
+      </c>
+      <c r="B79">
+        <v>131</v>
+      </c>
+      <c r="C79">
+        <v>127</v>
+      </c>
+      <c r="D79">
+        <v>127</v>
+      </c>
+      <c r="E79">
+        <v>127</v>
+      </c>
+      <c r="F79">
+        <v>127</v>
+      </c>
+      <c r="G79">
+        <v>127</v>
+      </c>
+      <c r="H79">
+        <v>114</v>
+      </c>
+      <c r="I79">
+        <v>114</v>
+      </c>
+      <c r="J79">
+        <v>114</v>
+      </c>
+      <c r="K79">
+        <v>114</v>
+      </c>
+      <c r="L79">
+        <v>114</v>
+      </c>
+      <c r="M79">
+        <v>114</v>
+      </c>
+      <c r="N79">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1996</v>
+      </c>
+      <c r="B80">
+        <v>131</v>
+      </c>
+      <c r="C80">
+        <v>127</v>
+      </c>
+      <c r="D80">
+        <v>127</v>
+      </c>
+      <c r="E80">
+        <v>127</v>
+      </c>
+      <c r="F80">
+        <v>127</v>
+      </c>
+      <c r="G80">
+        <v>127</v>
+      </c>
+      <c r="H80">
+        <v>114</v>
+      </c>
+      <c r="I80">
+        <v>114</v>
+      </c>
+      <c r="J80">
+        <v>114</v>
+      </c>
+      <c r="K80">
+        <v>114</v>
+      </c>
+      <c r="L80">
+        <v>114</v>
+      </c>
+      <c r="M80">
+        <v>114</v>
+      </c>
+      <c r="N80">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1997</v>
+      </c>
+      <c r="B81">
+        <v>131</v>
+      </c>
+      <c r="C81">
+        <v>127</v>
+      </c>
+      <c r="D81">
+        <v>127</v>
+      </c>
+      <c r="E81">
+        <v>127</v>
+      </c>
+      <c r="F81">
+        <v>127</v>
+      </c>
+      <c r="G81">
+        <v>127</v>
+      </c>
+      <c r="H81">
+        <v>114</v>
+      </c>
+      <c r="I81">
+        <v>114</v>
+      </c>
+      <c r="J81">
+        <v>114</v>
+      </c>
+      <c r="K81">
+        <v>114</v>
+      </c>
+      <c r="L81">
+        <v>114</v>
+      </c>
+      <c r="M81">
+        <v>114</v>
+      </c>
+      <c r="N81">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1998</v>
+      </c>
+      <c r="B82">
+        <v>131</v>
+      </c>
+      <c r="C82">
+        <v>127</v>
+      </c>
+      <c r="D82">
+        <v>127</v>
+      </c>
+      <c r="E82">
+        <v>127</v>
+      </c>
+      <c r="F82">
+        <v>127</v>
+      </c>
+      <c r="G82">
+        <v>127</v>
+      </c>
+      <c r="H82">
+        <v>114</v>
+      </c>
+      <c r="I82">
+        <v>114</v>
+      </c>
+      <c r="J82">
+        <v>114</v>
+      </c>
+      <c r="K82">
+        <v>114</v>
+      </c>
+      <c r="L82">
+        <v>114</v>
+      </c>
+      <c r="M82">
+        <v>114</v>
+      </c>
+      <c r="N82">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1999</v>
+      </c>
+      <c r="B83">
+        <v>131</v>
+      </c>
+      <c r="C83">
+        <v>127</v>
+      </c>
+      <c r="D83">
+        <v>127</v>
+      </c>
+      <c r="E83">
+        <v>127</v>
+      </c>
+      <c r="F83">
+        <v>127</v>
+      </c>
+      <c r="G83">
+        <v>127</v>
+      </c>
+      <c r="H83">
+        <v>114</v>
+      </c>
+      <c r="I83">
+        <v>114</v>
+      </c>
+      <c r="J83">
+        <v>114</v>
+      </c>
+      <c r="K83">
+        <v>114</v>
+      </c>
+      <c r="L83">
+        <v>114</v>
+      </c>
+      <c r="M83">
+        <v>114</v>
+      </c>
+      <c r="N83">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2000</v>
+      </c>
+      <c r="B84">
+        <v>131</v>
+      </c>
+      <c r="C84">
+        <v>127</v>
+      </c>
+      <c r="D84">
+        <v>127</v>
+      </c>
+      <c r="E84">
+        <v>127</v>
+      </c>
+      <c r="F84">
+        <v>127</v>
+      </c>
+      <c r="G84">
+        <v>127</v>
+      </c>
+      <c r="H84">
+        <v>114</v>
+      </c>
+      <c r="I84">
+        <v>114</v>
+      </c>
+      <c r="J84">
+        <v>114</v>
+      </c>
+      <c r="K84">
+        <v>114</v>
+      </c>
+      <c r="L84">
+        <v>114</v>
+      </c>
+      <c r="M84">
+        <v>114</v>
+      </c>
+      <c r="N84">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2001</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>46</v>
+      </c>
+      <c r="D85">
+        <v>46</v>
+      </c>
+      <c r="E85">
+        <v>46</v>
+      </c>
+      <c r="F85">
+        <v>46</v>
+      </c>
+      <c r="G85">
+        <v>46</v>
+      </c>
+      <c r="H85">
+        <v>53</v>
+      </c>
+      <c r="I85">
+        <v>53</v>
+      </c>
+      <c r="J85">
+        <v>53</v>
+      </c>
+      <c r="K85">
+        <v>53</v>
+      </c>
+      <c r="L85">
+        <v>53</v>
+      </c>
+      <c r="M85">
+        <v>53</v>
+      </c>
+      <c r="N85">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2002</v>
+      </c>
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86">
+        <v>46</v>
+      </c>
+      <c r="D86">
+        <v>46</v>
+      </c>
+      <c r="E86">
+        <v>46</v>
+      </c>
+      <c r="F86">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>46</v>
+      </c>
+      <c r="H86">
+        <v>53</v>
+      </c>
+      <c r="I86">
+        <v>53</v>
+      </c>
+      <c r="J86">
+        <v>53</v>
+      </c>
+      <c r="K86">
+        <v>53</v>
+      </c>
+      <c r="L86">
+        <v>53</v>
+      </c>
+      <c r="M86">
+        <v>53</v>
+      </c>
+      <c r="N86">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2003</v>
+      </c>
+      <c r="B87">
+        <v>83</v>
+      </c>
+      <c r="C87">
+        <v>46</v>
+      </c>
+      <c r="D87">
+        <v>46</v>
+      </c>
+      <c r="E87">
+        <v>46</v>
+      </c>
+      <c r="F87">
+        <v>46</v>
+      </c>
+      <c r="G87">
+        <v>46</v>
+      </c>
+      <c r="H87">
+        <v>53</v>
+      </c>
+      <c r="I87">
+        <v>53</v>
+      </c>
+      <c r="J87">
+        <v>53</v>
+      </c>
+      <c r="K87">
+        <v>53</v>
+      </c>
+      <c r="L87">
+        <v>53</v>
+      </c>
+      <c r="M87">
+        <v>53</v>
+      </c>
+      <c r="N87">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2004</v>
+      </c>
+      <c r="B88">
+        <v>83</v>
+      </c>
+      <c r="C88">
+        <v>46</v>
+      </c>
+      <c r="D88">
+        <v>46</v>
+      </c>
+      <c r="E88">
+        <v>46</v>
+      </c>
+      <c r="F88">
+        <v>46</v>
+      </c>
+      <c r="G88">
+        <v>46</v>
+      </c>
+      <c r="H88">
+        <v>53</v>
+      </c>
+      <c r="I88">
+        <v>53</v>
+      </c>
+      <c r="J88">
+        <v>53</v>
+      </c>
+      <c r="K88">
+        <v>53</v>
+      </c>
+      <c r="L88">
+        <v>53</v>
+      </c>
+      <c r="M88">
+        <v>53</v>
+      </c>
+      <c r="N88">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2005</v>
+      </c>
+      <c r="B89">
+        <v>83</v>
+      </c>
+      <c r="C89">
+        <v>46</v>
+      </c>
+      <c r="D89">
+        <v>46</v>
+      </c>
+      <c r="E89">
+        <v>46</v>
+      </c>
+      <c r="F89">
+        <v>46</v>
+      </c>
+      <c r="G89">
+        <v>46</v>
+      </c>
+      <c r="H89">
+        <v>53</v>
+      </c>
+      <c r="I89">
+        <v>53</v>
+      </c>
+      <c r="J89">
+        <v>53</v>
+      </c>
+      <c r="K89">
+        <v>53</v>
+      </c>
+      <c r="L89">
+        <v>53</v>
+      </c>
+      <c r="M89">
+        <v>53</v>
+      </c>
+      <c r="N89">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2006</v>
+      </c>
+      <c r="B90">
+        <v>83</v>
+      </c>
+      <c r="C90">
+        <v>46</v>
+      </c>
+      <c r="D90">
+        <v>46</v>
+      </c>
+      <c r="E90">
+        <v>46</v>
+      </c>
+      <c r="F90">
+        <v>46</v>
+      </c>
+      <c r="G90">
+        <v>46</v>
+      </c>
+      <c r="H90">
+        <v>53</v>
+      </c>
+      <c r="I90">
+        <v>53</v>
+      </c>
+      <c r="J90">
+        <v>53</v>
+      </c>
+      <c r="K90">
+        <v>53</v>
+      </c>
+      <c r="L90">
+        <v>53</v>
+      </c>
+      <c r="M90">
+        <v>53</v>
+      </c>
+      <c r="N90">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2007</v>
+      </c>
+      <c r="B91">
+        <v>83</v>
+      </c>
+      <c r="C91">
+        <v>46</v>
+      </c>
+      <c r="D91">
+        <v>46</v>
+      </c>
+      <c r="E91">
+        <v>46</v>
+      </c>
+      <c r="F91">
+        <v>46</v>
+      </c>
+      <c r="G91">
+        <v>46</v>
+      </c>
+      <c r="H91">
+        <v>53</v>
+      </c>
+      <c r="I91">
+        <v>53</v>
+      </c>
+      <c r="J91">
+        <v>53</v>
+      </c>
+      <c r="K91">
+        <v>53</v>
+      </c>
+      <c r="L91">
+        <v>53</v>
+      </c>
+      <c r="M91">
+        <v>53</v>
+      </c>
+      <c r="N91">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2008</v>
+      </c>
+      <c r="B92">
+        <v>83</v>
+      </c>
+      <c r="C92">
+        <v>46</v>
+      </c>
+      <c r="D92">
+        <v>46</v>
+      </c>
+      <c r="E92">
+        <v>46</v>
+      </c>
+      <c r="F92">
+        <v>46</v>
+      </c>
+      <c r="G92">
+        <v>46</v>
+      </c>
+      <c r="H92">
+        <v>53</v>
+      </c>
+      <c r="I92">
+        <v>53</v>
+      </c>
+      <c r="J92">
+        <v>53</v>
+      </c>
+      <c r="K92">
+        <v>53</v>
+      </c>
+      <c r="L92">
+        <v>53</v>
+      </c>
+      <c r="M92">
+        <v>53</v>
+      </c>
+      <c r="N92">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2009</v>
+      </c>
+      <c r="B93">
+        <v>48</v>
+      </c>
+      <c r="C93">
+        <v>46</v>
+      </c>
+      <c r="D93">
+        <v>46</v>
+      </c>
+      <c r="E93">
+        <v>46</v>
+      </c>
+      <c r="F93">
+        <v>46</v>
+      </c>
+      <c r="G93">
+        <v>46</v>
+      </c>
+      <c r="H93">
+        <v>53</v>
+      </c>
+      <c r="I93">
+        <v>53</v>
+      </c>
+      <c r="J93">
+        <v>53</v>
+      </c>
+      <c r="K93">
+        <v>53</v>
+      </c>
+      <c r="L93">
+        <v>53</v>
+      </c>
+      <c r="M93">
+        <v>53</v>
+      </c>
+      <c r="N93">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2010</v>
+      </c>
+      <c r="B94">
+        <v>48</v>
+      </c>
+      <c r="C94">
+        <v>46</v>
+      </c>
+      <c r="D94">
+        <v>46</v>
+      </c>
+      <c r="E94">
+        <v>46</v>
+      </c>
+      <c r="F94">
+        <v>46</v>
+      </c>
+      <c r="G94">
+        <v>46</v>
+      </c>
+      <c r="H94">
+        <v>53</v>
+      </c>
+      <c r="I94">
+        <v>53</v>
+      </c>
+      <c r="J94">
+        <v>53</v>
+      </c>
+      <c r="K94">
+        <v>53</v>
+      </c>
+      <c r="L94">
+        <v>53</v>
+      </c>
+      <c r="M94">
+        <v>53</v>
+      </c>
+      <c r="N94">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2011</v>
+      </c>
+      <c r="B95">
+        <v>48</v>
+      </c>
+      <c r="C95">
+        <v>46</v>
+      </c>
+      <c r="D95">
+        <v>46</v>
+      </c>
+      <c r="E95">
+        <v>46</v>
+      </c>
+      <c r="F95">
+        <v>46</v>
+      </c>
+      <c r="G95">
+        <v>46</v>
+      </c>
+      <c r="H95">
+        <v>53</v>
+      </c>
+      <c r="I95">
+        <v>53</v>
+      </c>
+      <c r="J95">
+        <v>53</v>
+      </c>
+      <c r="K95">
+        <v>53</v>
+      </c>
+      <c r="L95">
+        <v>53</v>
+      </c>
+      <c r="M95">
+        <v>53</v>
+      </c>
+      <c r="N95">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2012</v>
+      </c>
+      <c r="B96">
+        <v>48</v>
+      </c>
+      <c r="C96">
+        <v>46</v>
+      </c>
+      <c r="D96">
+        <v>46</v>
+      </c>
+      <c r="E96">
+        <v>46</v>
+      </c>
+      <c r="F96">
+        <v>46</v>
+      </c>
+      <c r="G96">
+        <v>46</v>
+      </c>
+      <c r="H96">
+        <v>53</v>
+      </c>
+      <c r="I96">
+        <v>53</v>
+      </c>
+      <c r="J96">
+        <v>53</v>
+      </c>
+      <c r="K96">
+        <v>53</v>
+      </c>
+      <c r="L96">
+        <v>53</v>
+      </c>
+      <c r="M96">
+        <v>53</v>
+      </c>
+      <c r="N96">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2013</v>
+      </c>
+      <c r="B97">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>46</v>
+      </c>
+      <c r="D97">
+        <v>46</v>
+      </c>
+      <c r="E97">
+        <v>46</v>
+      </c>
+      <c r="F97">
+        <v>46</v>
+      </c>
+      <c r="G97">
+        <v>46</v>
+      </c>
+      <c r="H97">
+        <v>53</v>
+      </c>
+      <c r="I97">
+        <v>53</v>
+      </c>
+      <c r="J97">
+        <v>53</v>
+      </c>
+      <c r="K97">
+        <v>53</v>
+      </c>
+      <c r="L97">
+        <v>53</v>
+      </c>
+      <c r="M97">
+        <v>53</v>
+      </c>
+      <c r="N97">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2014</v>
+      </c>
+      <c r="B98">
+        <v>48</v>
+      </c>
+      <c r="C98">
+        <v>46</v>
+      </c>
+      <c r="D98">
+        <v>46</v>
+      </c>
+      <c r="E98">
+        <v>46</v>
+      </c>
+      <c r="F98">
+        <v>46</v>
+      </c>
+      <c r="G98">
+        <v>46</v>
+      </c>
+      <c r="H98">
+        <v>53</v>
+      </c>
+      <c r="I98">
+        <v>53</v>
+      </c>
+      <c r="J98">
+        <v>53</v>
+      </c>
+      <c r="K98">
+        <v>53</v>
+      </c>
+      <c r="L98">
+        <v>53</v>
+      </c>
+      <c r="M98">
+        <v>53</v>
+      </c>
+      <c r="N98">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2015</v>
+      </c>
+      <c r="B99">
+        <v>48</v>
+      </c>
+      <c r="C99">
+        <v>46</v>
+      </c>
+      <c r="D99">
+        <v>46</v>
+      </c>
+      <c r="E99">
+        <v>46</v>
+      </c>
+      <c r="F99">
+        <v>46</v>
+      </c>
+      <c r="G99">
+        <v>46</v>
+      </c>
+      <c r="H99">
+        <v>53</v>
+      </c>
+      <c r="I99">
+        <v>53</v>
+      </c>
+      <c r="J99">
+        <v>53</v>
+      </c>
+      <c r="K99">
+        <v>53</v>
+      </c>
+      <c r="L99">
+        <v>53</v>
+      </c>
+      <c r="M99">
+        <v>53</v>
+      </c>
+      <c r="N99">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2016</v>
+      </c>
+      <c r="B100">
+        <v>48</v>
+      </c>
+      <c r="C100">
+        <v>46</v>
+      </c>
+      <c r="D100">
+        <v>46</v>
+      </c>
+      <c r="E100">
+        <v>46</v>
+      </c>
+      <c r="F100">
+        <v>46</v>
+      </c>
+      <c r="G100">
+        <v>46</v>
+      </c>
+      <c r="H100">
+        <v>53</v>
+      </c>
+      <c r="I100">
+        <v>53</v>
+      </c>
+      <c r="J100">
+        <v>53</v>
+      </c>
+      <c r="K100">
+        <v>53</v>
+      </c>
+      <c r="L100">
+        <v>53</v>
+      </c>
+      <c r="M100">
+        <v>53</v>
+      </c>
+      <c r="N100">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2017</v>
+      </c>
+      <c r="B101">
+        <v>48</v>
+      </c>
+      <c r="C101">
+        <v>46</v>
+      </c>
+      <c r="D101">
+        <v>46</v>
+      </c>
+      <c r="E101">
+        <v>46</v>
+      </c>
+      <c r="F101">
+        <v>46</v>
+      </c>
+      <c r="G101">
+        <v>46</v>
+      </c>
+      <c r="H101">
+        <v>53</v>
+      </c>
+      <c r="I101">
+        <v>53</v>
+      </c>
+      <c r="J101">
+        <v>53</v>
+      </c>
+      <c r="K101">
+        <v>53</v>
+      </c>
+      <c r="L101">
+        <v>53</v>
+      </c>
+      <c r="M101">
+        <v>53</v>
+      </c>
+      <c r="N101">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2018</v>
+      </c>
+      <c r="B102">
+        <v>48</v>
+      </c>
+      <c r="C102">
+        <v>46</v>
+      </c>
+      <c r="D102">
+        <v>46</v>
+      </c>
+      <c r="E102">
+        <v>46</v>
+      </c>
+      <c r="F102">
+        <v>46</v>
+      </c>
+      <c r="G102">
+        <v>46</v>
+      </c>
+      <c r="H102">
+        <v>53</v>
+      </c>
+      <c r="I102">
+        <v>53</v>
+      </c>
+      <c r="J102">
+        <v>53</v>
+      </c>
+      <c r="K102">
+        <v>53</v>
+      </c>
+      <c r="L102">
+        <v>53</v>
+      </c>
+      <c r="M102">
+        <v>53</v>
+      </c>
+      <c r="N102">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2019</v>
+      </c>
+      <c r="B103">
+        <v>48</v>
+      </c>
+      <c r="C103">
+        <v>46</v>
+      </c>
+      <c r="D103">
+        <v>46</v>
+      </c>
+      <c r="E103">
+        <v>46</v>
+      </c>
+      <c r="F103">
+        <v>46</v>
+      </c>
+      <c r="G103">
+        <v>46</v>
+      </c>
+      <c r="H103">
+        <v>53</v>
+      </c>
+      <c r="I103">
+        <v>53</v>
+      </c>
+      <c r="J103">
+        <v>53</v>
+      </c>
+      <c r="K103">
+        <v>53</v>
+      </c>
+      <c r="L103">
+        <v>53</v>
+      </c>
+      <c r="M103">
+        <v>53</v>
+      </c>
+      <c r="N103">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2020</v>
+      </c>
+      <c r="B104">
+        <v>48</v>
+      </c>
+      <c r="C104">
+        <v>46</v>
+      </c>
+      <c r="D104">
+        <v>46</v>
+      </c>
+      <c r="E104">
+        <v>46</v>
+      </c>
+      <c r="F104">
+        <v>46</v>
+      </c>
+      <c r="G104">
+        <v>46</v>
+      </c>
+      <c r="H104">
+        <v>53</v>
+      </c>
+      <c r="I104">
+        <v>53</v>
+      </c>
+      <c r="J104">
+        <v>53</v>
+      </c>
+      <c r="K104">
+        <v>53</v>
+      </c>
+      <c r="L104">
+        <v>53</v>
+      </c>
+      <c r="M104">
+        <v>53</v>
+      </c>
+      <c r="N104">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2021</v>
+      </c>
+      <c r="B105">
+        <v>48</v>
+      </c>
+      <c r="C105">
+        <v>46</v>
+      </c>
+      <c r="D105">
+        <v>46</v>
+      </c>
+      <c r="E105">
+        <v>46</v>
+      </c>
+      <c r="F105">
+        <v>46</v>
+      </c>
+      <c r="G105">
+        <v>46</v>
+      </c>
+      <c r="H105">
+        <v>53</v>
+      </c>
+      <c r="I105">
+        <v>53</v>
+      </c>
+      <c r="J105">
+        <v>53</v>
+      </c>
+      <c r="K105">
+        <v>53</v>
+      </c>
+      <c r="L105">
+        <v>53</v>
+      </c>
+      <c r="M105">
+        <v>53</v>
+      </c>
+      <c r="N105">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2022</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="C106">
+        <v>46</v>
+      </c>
+      <c r="D106">
+        <v>46</v>
+      </c>
+      <c r="E106">
+        <v>46</v>
+      </c>
+      <c r="F106">
+        <v>46</v>
+      </c>
+      <c r="G106">
+        <v>46</v>
+      </c>
+      <c r="H106">
+        <v>53</v>
+      </c>
+      <c r="I106">
+        <v>53</v>
+      </c>
+      <c r="J106">
+        <v>53</v>
+      </c>
+      <c r="K106">
+        <v>53</v>
+      </c>
+      <c r="L106">
+        <v>53</v>
+      </c>
+      <c r="M106">
+        <v>53</v>
+      </c>
+      <c r="N106">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2023</v>
+      </c>
+      <c r="B107">
+        <v>48</v>
+      </c>
+      <c r="C107">
+        <v>46</v>
+      </c>
+      <c r="D107">
+        <v>46</v>
+      </c>
+      <c r="E107">
+        <v>46</v>
+      </c>
+      <c r="F107">
+        <v>46</v>
+      </c>
+      <c r="G107">
+        <v>46</v>
+      </c>
+      <c r="H107">
+        <v>53</v>
+      </c>
+      <c r="I107">
+        <v>53</v>
+      </c>
+      <c r="J107">
+        <v>53</v>
+      </c>
+      <c r="K107">
+        <v>53</v>
+      </c>
+      <c r="L107">
+        <v>53</v>
+      </c>
+      <c r="M107">
+        <v>53</v>
+      </c>
+      <c r="N107">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2024</v>
+      </c>
+      <c r="B108">
+        <v>48</v>
+      </c>
+      <c r="C108">
+        <v>46</v>
+      </c>
+      <c r="D108">
+        <v>46</v>
+      </c>
+      <c r="E108">
+        <v>46</v>
+      </c>
+      <c r="F108">
+        <v>46</v>
+      </c>
+      <c r="G108">
+        <v>46</v>
+      </c>
+      <c r="H108">
+        <v>53</v>
+      </c>
+      <c r="I108">
+        <v>53</v>
+      </c>
+      <c r="J108">
+        <v>53</v>
+      </c>
+      <c r="K108">
+        <v>53</v>
+      </c>
+      <c r="L108">
+        <v>53</v>
+      </c>
+      <c r="M108">
+        <v>53</v>
+      </c>
+      <c r="N108">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2025</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+      <c r="C109">
+        <v>46</v>
+      </c>
+      <c r="D109">
+        <v>46</v>
+      </c>
+      <c r="E109">
+        <v>46</v>
+      </c>
+      <c r="F109">
+        <v>46</v>
+      </c>
+      <c r="G109">
+        <v>46</v>
+      </c>
+      <c r="H109">
+        <v>53</v>
+      </c>
+      <c r="I109">
+        <v>53</v>
+      </c>
+      <c r="J109">
+        <v>53</v>
+      </c>
+      <c r="K109">
+        <v>53</v>
+      </c>
+      <c r="L109">
+        <v>53</v>
+      </c>
+      <c r="M109">
+        <v>53</v>
+      </c>
+      <c r="N109">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED9B206-203E-46E1-912B-892C52C59418}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2300</v>
+      </c>
+      <c r="C2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3600</v>
+      </c>
+      <c r="C4">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FFC058-AB98-4F61-AE92-CA24E0DC3094}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7FF1C7-97E4-40D8-A576-CE58888B48AE}">
+  <dimension ref="A1:B109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1919</v>
+      </c>
+      <c r="B3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1920</v>
+      </c>
+      <c r="B4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1921</v>
+      </c>
+      <c r="B5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1922</v>
+      </c>
+      <c r="B6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1923</v>
+      </c>
+      <c r="B7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1924</v>
+      </c>
+      <c r="B8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1925</v>
+      </c>
+      <c r="B9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1926</v>
+      </c>
+      <c r="B10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1927</v>
+      </c>
+      <c r="B11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1928</v>
+      </c>
+      <c r="B12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1929</v>
+      </c>
+      <c r="B13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1930</v>
+      </c>
+      <c r="B14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1931</v>
+      </c>
+      <c r="B15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1932</v>
+      </c>
+      <c r="B16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1933</v>
+      </c>
+      <c r="B17">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1934</v>
+      </c>
+      <c r="B18">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1935</v>
+      </c>
+      <c r="B19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1936</v>
+      </c>
+      <c r="B20">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1937</v>
+      </c>
+      <c r="B21">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1938</v>
+      </c>
+      <c r="B22">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1939</v>
+      </c>
+      <c r="B23">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1940</v>
+      </c>
+      <c r="B24">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1941</v>
+      </c>
+      <c r="B25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1942</v>
+      </c>
+      <c r="B26">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1943</v>
+      </c>
+      <c r="B27">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1944</v>
+      </c>
+      <c r="B28">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1945</v>
+      </c>
+      <c r="B29">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1946</v>
+      </c>
+      <c r="B30">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1947</v>
+      </c>
+      <c r="B31">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1948</v>
+      </c>
+      <c r="B32">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1949</v>
+      </c>
+      <c r="B33">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1950</v>
+      </c>
+      <c r="B34">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1951</v>
+      </c>
+      <c r="B35">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1952</v>
+      </c>
+      <c r="B36">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1953</v>
+      </c>
+      <c r="B37">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1954</v>
+      </c>
+      <c r="B38">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1955</v>
+      </c>
+      <c r="B39">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1956</v>
+      </c>
+      <c r="B40">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1957</v>
+      </c>
+      <c r="B41">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1958</v>
+      </c>
+      <c r="B42">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1959</v>
+      </c>
+      <c r="B43">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1960</v>
+      </c>
+      <c r="B44">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1961</v>
+      </c>
+      <c r="B45">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1962</v>
+      </c>
+      <c r="B46">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1963</v>
+      </c>
+      <c r="B47">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1964</v>
+      </c>
+      <c r="B48">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1965</v>
+      </c>
+      <c r="B49">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1966</v>
+      </c>
+      <c r="B50">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1967</v>
+      </c>
+      <c r="B51">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1968</v>
+      </c>
+      <c r="B52">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1969</v>
+      </c>
+      <c r="B53">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1970</v>
+      </c>
+      <c r="B54">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1971</v>
+      </c>
+      <c r="B55">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1972</v>
+      </c>
+      <c r="B56">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1973</v>
+      </c>
+      <c r="B57">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1974</v>
+      </c>
+      <c r="B58">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1975</v>
+      </c>
+      <c r="B59">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1976</v>
+      </c>
+      <c r="B60">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1977</v>
+      </c>
+      <c r="B61">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1978</v>
+      </c>
+      <c r="B62">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1979</v>
+      </c>
+      <c r="B63">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1980</v>
+      </c>
+      <c r="B64">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1981</v>
+      </c>
+      <c r="B65">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1982</v>
+      </c>
+      <c r="B66">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1983</v>
+      </c>
+      <c r="B67">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1984</v>
+      </c>
+      <c r="B68">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1985</v>
+      </c>
+      <c r="B69">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1986</v>
+      </c>
+      <c r="B70">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1987</v>
+      </c>
+      <c r="B71">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1988</v>
+      </c>
+      <c r="B72">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1989</v>
+      </c>
+      <c r="B73">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1990</v>
+      </c>
+      <c r="B74">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1991</v>
+      </c>
+      <c r="B75">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1992</v>
+      </c>
+      <c r="B76">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1993</v>
+      </c>
+      <c r="B77">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1994</v>
+      </c>
+      <c r="B78">
+        <v>125.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1995</v>
+      </c>
+      <c r="B79">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1996</v>
+      </c>
+      <c r="B80">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1997</v>
+      </c>
+      <c r="B81">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1998</v>
+      </c>
+      <c r="B82">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1999</v>
+      </c>
+      <c r="B83">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2000</v>
+      </c>
+      <c r="B84">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2001</v>
+      </c>
+      <c r="B85">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2002</v>
+      </c>
+      <c r="B86">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2003</v>
+      </c>
+      <c r="B87">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2004</v>
+      </c>
+      <c r="B88">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2005</v>
+      </c>
+      <c r="B89">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2006</v>
+      </c>
+      <c r="B90">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2007</v>
+      </c>
+      <c r="B91">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>2008</v>
+      </c>
+      <c r="B92">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>2009</v>
+      </c>
+      <c r="B93">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>2010</v>
+      </c>
+      <c r="B94">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>2011</v>
+      </c>
+      <c r="B95">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>2012</v>
+      </c>
+      <c r="B96">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>2013</v>
+      </c>
+      <c r="B97">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>2014</v>
+      </c>
+      <c r="B98">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>2015</v>
+      </c>
+      <c r="B99">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>2016</v>
+      </c>
+      <c r="B100">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>2017</v>
+      </c>
+      <c r="B101">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>2018</v>
+      </c>
+      <c r="B102">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>2019</v>
+      </c>
+      <c r="B103">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2020</v>
+      </c>
+      <c r="B104">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>2021</v>
+      </c>
+      <c r="B105">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2022</v>
+      </c>
+      <c r="B106">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>2023</v>
+      </c>
+      <c r="B107">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>2024</v>
+      </c>
+      <c r="B108">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2025</v>
+      </c>
+      <c r="B109">
+        <v>101.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C44DF1E-591C-4AD1-800F-513B105743F0}">
   <dimension ref="A1:U2"/>
@@ -2285,7 +8530,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K2" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2392,10 +8637,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E484F043-7E01-40E7-BB4B-B062884D6E96}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2720,6 +8965,93 @@
         <v>474</v>
       </c>
       <c r="I11" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
@@ -2755,6 +9087,460 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6AB090-23C5-424B-B3B0-37FCF2E61B08}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="73">
+        <v>1</v>
+      </c>
+      <c r="D2" s="73">
+        <v>1</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="73">
+        <v>1</v>
+      </c>
+      <c r="D3" s="67">
+        <v>1</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="67">
+        <v>1</v>
+      </c>
+      <c r="I3" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="73">
+        <v>1</v>
+      </c>
+      <c r="D4" s="73">
+        <v>1</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="73">
+        <v>1</v>
+      </c>
+      <c r="D5" s="67">
+        <v>1</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="67">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="73">
+        <v>1</v>
+      </c>
+      <c r="D6" s="73">
+        <v>1</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="73">
+        <v>1</v>
+      </c>
+      <c r="D7" s="67">
+        <v>1</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="67">
+        <v>1</v>
+      </c>
+      <c r="I7" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="73">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67">
+        <v>1</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="67">
+        <v>1</v>
+      </c>
+      <c r="I8" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="73">
+        <v>1</v>
+      </c>
+      <c r="D9" s="67">
+        <v>1</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="67">
+        <v>1</v>
+      </c>
+      <c r="I9" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="73">
+        <v>1</v>
+      </c>
+      <c r="D10" s="67">
+        <v>1</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="67">
+        <v>1</v>
+      </c>
+      <c r="I10" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="73">
+        <v>1</v>
+      </c>
+      <c r="D11" s="67">
+        <v>1</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="67">
+        <v>1</v>
+      </c>
+      <c r="I11" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="73">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67">
+        <v>1</v>
+      </c>
+      <c r="E12" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="67">
+        <v>1</v>
+      </c>
+      <c r="I12" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="73">
+        <v>1</v>
+      </c>
+      <c r="D13" s="67">
+        <v>1</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="67">
+        <v>1</v>
+      </c>
+      <c r="I13" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="73">
+        <v>1</v>
+      </c>
+      <c r="D14" s="67">
+        <v>1</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="67">
+        <v>1</v>
+      </c>
+      <c r="I14" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="73">
+        <v>1</v>
+      </c>
+      <c r="D15" s="67">
+        <v>1</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="67">
+        <v>1</v>
+      </c>
+      <c r="I15" s="71">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855A0A5F-F030-4496-8A0E-6242DC0CF359}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -3062,7 +9848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE927399-003C-48EB-9B1D-38CD953B69E6}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
@@ -3272,166 +10058,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FE8880-8BE9-4F72-BC86-0B8CF6C38967}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="43">
-        <v>1</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="F2" s="45">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G2" s="45">
-        <v>0</v>
-      </c>
-      <c r="H2" s="45">
-        <v>0</v>
-      </c>
-      <c r="I2" s="45">
-        <v>0</v>
-      </c>
-      <c r="J2" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="M2" s="45">
-        <v>0</v>
-      </c>
-      <c r="N2" s="53">
-        <v>10</v>
-      </c>
-      <c r="O2" s="45">
-        <v>1000</v>
-      </c>
-      <c r="P2" s="45">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="45">
-        <v>0</v>
-      </c>
-      <c r="S2" s="46">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{F2CB256D-BC30-493C-AA65-5F1B40BF51B5}">
-            <x14:iconSet iconSet="3Symbols" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C1:C2</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
 </file>